--- a/data.xlsx
+++ b/data.xlsx
@@ -6,14 +6,14 @@
     <sheet state="visible" name="시트1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'시트1'!$A$1:$T$51</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'시트1'!$A$1:$U$51</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="661">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="713">
   <si>
     <t>ID</t>
   </si>
@@ -54,7 +54,10 @@
     <t>Description_KR</t>
   </si>
   <si>
-    <t>Tag</t>
+    <t>Tag_EN</t>
+  </si>
+  <si>
+    <t>Tag_KR</t>
   </si>
   <si>
     <t>Group_EN</t>
@@ -75,6 +78,15 @@
     <t>Google_Image_KR</t>
   </si>
   <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>한국어 태그 (Korean)</t>
+  </si>
+  <si>
+    <t>영어 태그 (English)</t>
+  </si>
+  <si>
     <t>中之島公園</t>
   </si>
   <si>
@@ -105,6 +117,9 @@
     <t>도지마강과 도사보리강 사이의 수변 공원. 5월의 장미 정원과 고풍스러운 중앙공회당 건물이 어우러진 산책 명소.</t>
   </si>
   <si>
+    <t>#Park #Walk #Healing #NightView #Cafe</t>
+  </si>
+  <si>
     <t>#공원 #산책 #힐링 #야경 #카페</t>
   </si>
   <si>
@@ -180,6 +195,9 @@
     <t>오피스 가 속 도심 공원. 현지인들의 휴식처이자 주변의 힙한 카페와 베이커리가 밀집한 핫플레이스.</t>
   </si>
   <si>
+    <t>#Park #Walk #Healing #Cafe #CityBreak</t>
+  </si>
+  <si>
     <t>#공원 #산책 #힐링 #카페 #도심속휴식</t>
   </si>
   <si>
@@ -267,6 +285,9 @@
     <t>텐노지 공원 입구의 넓은 잔디 광장. 아베노 하루카스를 배경으로 피크닉을 즐길 수 있는 도심 속 쉼터.</t>
   </si>
   <si>
+    <t>#Park #Walk #Healing #Cafe #WithKids</t>
+  </si>
+  <si>
     <t>#공원 #산책 #힐링 #카페 #아이와함께</t>
   </si>
   <si>
@@ -351,6 +372,9 @@
     <t>낮에는 계절 꽃이 만발한 식물원, 밤에는 미디어 아트 '팀랩(TeamLab)' 상설 전시가 열리는 복합 예술 공간.</t>
   </si>
   <si>
+    <t>#Park #Garden #Healing #NightView #Walk</t>
+  </si>
+  <si>
     <t>#공원 #정원 #힐링 #야경 #산책</t>
   </si>
   <si>
@@ -438,6 +462,9 @@
     <t>일본의 폭포 100선에 선정된 명승지. 가을 단풍과 튀김 단풍잎(모미지 덴푸라)이 유명한 힐링 트레킹 코스.</t>
   </si>
   <si>
+    <t>#Nature #Healing #Walk #AutumnLeaves #Park</t>
+  </si>
+  <si>
     <t>#자연 #힐링 #산책 #단풍 #공원</t>
   </si>
   <si>
@@ -516,6 +543,9 @@
     <t>길이 280m의 거대 목조 현수교 '별의 그네'가 있는 자연 공원. 공중 산책과 파노라마 단풍 절경이 특징.</t>
   </si>
   <si>
+    <t>#Park #Nature #Experience #Healing #Thrill</t>
+  </si>
+  <si>
     <t>#공원 #자연 #체험 #힐링 #스릴</t>
   </si>
   <si>
@@ -597,6 +627,9 @@
     <t>폐선된 JR 후쿠치야마선 철길을 걷는 이색 하이킹 코스. 터널과 벚꽃, 계곡이 어우러진 사진 명소.</t>
   </si>
   <si>
+    <t>#Ghibli #Nature #Walk #Vibes #Hiking</t>
+  </si>
+  <si>
     <t>#지브리 #자연 #산책 #감성 #하이킹</t>
   </si>
   <si>
@@ -672,6 +705,9 @@
     <t>기암괴석과 계곡미가 돋보이는 자연 공원. 여름철 물놀이와 바베큐, 봄철 벚꽃놀이의 명소.</t>
   </si>
   <si>
+    <t>#Park #Nature #Healing #Valley #Walk</t>
+  </si>
+  <si>
     <t>#공원 #자연 #힐링 #계곡 #산책</t>
   </si>
   <si>
@@ -747,6 +783,9 @@
     <t>1970년 오사카 엑스포 부지. 상징물인 '태양의 탑'과 광활한 정원, 인근의 대형 쇼핑몰(엑스포시티) 연계 가능.</t>
   </si>
   <si>
+    <t>#Park #Landmark #Walk #Healing #Culture</t>
+  </si>
+  <si>
     <t>#공원 #랜드마크 #산책 #힐링 #문화</t>
   </si>
   <si>
@@ -825,6 +864,9 @@
     <t>일본 최대 규모의 허브 정원. 로프웨이에서 내려다보는 고베 시내 전경과 야경이 아름다운 데이트 코스.</t>
   </si>
   <si>
+    <t>#Garden #Culture #Healing #NightView #Cafe</t>
+  </si>
+  <si>
     <t>#정원 #문화 #힐링 #야경 #카페</t>
   </si>
   <si>
@@ -897,6 +939,9 @@
     <t>고베를 대표하는 백사장. 최근 리뉴얼을 통해 오션뷰 카페와 산책로가 조성된 트렌디한 해변.</t>
   </si>
   <si>
+    <t>#Nature #Healing #Ocean #Summer #Park</t>
+  </si>
+  <si>
     <t>#자연 #힐링 #바다 #여름 #공원</t>
   </si>
   <si>
@@ -966,6 +1011,9 @@
     <t>희귀동물 웜뱃을 무료로 만날 수 있는 시립 동물원. 작지만 알찬 구성으로 가족 단위 방문객에게 인기.</t>
   </si>
   <si>
+    <t>#Park #Experience #WithKids #CostEffective</t>
+  </si>
+  <si>
     <t>#공원 #체험 #아이와함께 #가성비</t>
   </si>
   <si>
@@ -1050,6 +1098,9 @@
     <t>나라 사슴공원 인근의 지천회유식 일본 정원. 차경(빌려온 풍경) 기법이 돋보이는 고즈넉한 사색 공간.</t>
   </si>
   <si>
+    <t>#Garden #Culture #Healing #Walk #History</t>
+  </si>
+  <si>
     <t>#정원 #문화 #힐링 #산책 #역사</t>
   </si>
   <si>
@@ -1131,6 +1182,9 @@
     <t>닌자 수행지로 알려진 깊은 숲속 계곡. 크고 작은 폭포들이 이어지는 마이너스 이온 가득한 산책로.</t>
   </si>
   <si>
+    <t>#Nature #Experience #Healing #Hiking</t>
+  </si>
+  <si>
     <t>#자연 #체험 #힐링 #하이킹</t>
   </si>
   <si>
@@ -1212,6 +1266,9 @@
     <t>애니메이션 '라퓨타'를 연상케 하는 무인도. 붉은 벽돌의 옛 포대 유적과 자연이 어우러진 신비로운 분위기.</t>
   </si>
   <si>
+    <t>#Ghibli #Experience #Vibes #PhotoSpot #Nature</t>
+  </si>
+  <si>
     <t>#지브리 #체험 #감성 #인생샷 #자연</t>
   </si>
   <si>
@@ -1281,6 +1338,9 @@
     <t>나라현의 억새 명소. 가을철 해 질 녘, 황금빛으로 물드는 억새밭이 장관을 이루는 사진 촬영 성지.</t>
   </si>
   <si>
+    <t>#Ghibli #Nature #Healing #NightView #PhotoSpot</t>
+  </si>
+  <si>
     <t>#지브리 #자연 #힐링 #야경 #인생샷</t>
   </si>
   <si>
@@ -1359,6 +1419,9 @@
     <t>해발 1,100m에서 비와코 호수를 조망하는 산정 테라스. 인피니티 풀과 카페를 갖춘 럭셔리 뷰포인트.</t>
   </si>
   <si>
+    <t>#Healing #Nature #Cafe #NightView #PhotoSpot</t>
+  </si>
+  <si>
     <t>#힐링 #자연 #카페 #야경 #인생샷</t>
   </si>
   <si>
@@ -1425,6 +1488,9 @@
     <t>비와코 호수 중 가장 맑은 수질을 자랑하는 호수욕장. 송림이 우거진 백사장과 바베큐 시설 보유.</t>
   </si>
   <si>
+    <t>#Nature #Healing #Summer #WaterPlay</t>
+  </si>
+  <si>
     <t>#자연 #힐링 #여름 #물놀이</t>
   </si>
   <si>
@@ -1497,6 +1563,9 @@
     <t>아와지섬 북부 구릉지대의 대규모 꽃밭. 오사카만과 꽃밭이 어우러진 파노라마 뷰가 특징.</t>
   </si>
   <si>
+    <t>#Park #Nature #Healing #FlowerViewing #Walk</t>
+  </si>
+  <si>
     <t>#공원 #자연 #힐링 #꽃구경 #산책</t>
   </si>
   <si>
@@ -1569,6 +1638,9 @@
     <t>지상 300m 높이의 초고층 전망대. 통유리 구조로 오사카 평야를 360도 조망 가능한 야경 랜드마크.</t>
   </si>
   <si>
+    <t>#NightView #Landmark #Indoor #Date</t>
+  </si>
+  <si>
     <t>#야경 #랜드마크 #실내 #데이트</t>
   </si>
   <si>
@@ -1653,6 +1725,9 @@
     <t>세계문화유산인 모즈 고분군을 내려다볼 수 있는 무료 전망 로비. 한적하게 야경을 즐길 수 있는 숨은 명소.</t>
   </si>
   <si>
+    <t>#NightView #CostEffective #Indoor #HiddenGem</t>
+  </si>
+  <si>
     <t>#야경 #가성비 #실내 #숨은명소</t>
   </si>
   <si>
@@ -1725,6 +1800,9 @@
     <t>오스트리아 건축가 훈데르트바서가 디자인한 쓰레기 처리장. 동화 같은 외관과 독특한 건축미가 특징.</t>
   </si>
   <si>
+    <t>#Ghibli #UniqueArchitecture #Art #PhotoSpot</t>
+  </si>
+  <si>
     <t>#지브리 #이색건축 #예술 #인생샷</t>
   </si>
   <si>
@@ -1797,6 +1875,9 @@
     <t>도톤보리 강을 가로지르며 라이브 재즈 공연을 즐기는 관광 유람선. 강변의 네온사인과 음악의 조화.</t>
   </si>
   <si>
+    <t>#NightView #Experience #Tourism #CityCenter #Date</t>
+  </si>
+  <si>
     <t>#야경 #체험 #관광 #도심 #데이트</t>
   </si>
   <si>
@@ -1872,6 +1953,9 @@
     <t>고베 천만 불짜리 야경의 파노라마 뷰포인트. '자연체감 전망대 롯코시다레' 등 예술 조형물이 있는 복합 공간.</t>
   </si>
   <si>
+    <t>#NightView #Healing #Date #Cafe</t>
+  </si>
+  <si>
     <t>#야경 #힐링 #데이트 #카페</t>
   </si>
   <si>
@@ -1938,6 +2022,9 @@
     <t>해발 642m 산 정상에 위치한 레트로 유원지. 입장료 무료이며 오사카와 나라의 야경을 동시에 감상 가능.</t>
   </si>
   <si>
+    <t>#NightView #Experience #Retro #WithKids</t>
+  </si>
+  <si>
     <t>#야경 #체험 #레트로 #아이와함께</t>
   </si>
   <si>
@@ -2016,6 +2103,9 @@
     <t>난바 도심 속 에도 시대 정취를 간직한 골목. 이끼 덮인 부동명왕상과 노포들이 모여있는 미식 거리.</t>
   </si>
   <si>
+    <t>#Vibes #Foodie #Culture #NightView #Alley</t>
+  </si>
+  <si>
     <t>#감성 #맛집 #문화 #야경 #골목</t>
   </si>
   <si>
@@ -2088,6 +2178,9 @@
     <t>1800년 역사를 지닌 오사카의 대표 신사. 국보로 지정된 본전과 붉은 아치형 다리(소리하시)가 볼거리.</t>
   </si>
   <si>
+    <t>#Shrine #Culture #Walk #Healing #History</t>
+  </si>
+  <si>
     <t>#신사 #문화 #산책 #힐링 #역사</t>
   </si>
   <si>
@@ -2160,6 +2253,9 @@
     <t>높이 12m의 거대한 사자 머리 모양 전각이 있는 신사. 액운을 삼키고 행운을 부른다는 강력한 파워스팟.</t>
   </si>
   <si>
+    <t>#Shrine #Culture #Landmark #UniqueSpot</t>
+  </si>
+  <si>
     <t>#신사 #문화 #랜드마크 #이색명소</t>
   </si>
   <si>
@@ -2232,6 +2328,9 @@
     <t>쇼토쿠 태자가 건립한 일본 최초의 관립 사찰. 매월 21일 열리는 대규모 벼룩시장과 5층 목탑이 유명.</t>
   </si>
   <si>
+    <t>#Temple #Culture #History #Walk #Healing</t>
+  </si>
+  <si>
     <t>#절 #문화 #역사 #산책 #힐링</t>
   </si>
   <si>
@@ -2307,6 +2406,9 @@
     <t>단지리 축제'의 고장이자 아름다운 정원 '하치진의 정원'을 품은 성. 천수각에서 바라보는 조망이 일품.</t>
   </si>
   <si>
+    <t>#Castle #Culture #Landmark #History #Walk</t>
+  </si>
+  <si>
     <t>#성 #문화 #랜드마크 #역사 #산책</t>
   </si>
   <si>
@@ -2388,6 +2490,9 @@
     <t>승부운의 성지이자 '다루마(오뚝이)'의 절. 경내 곳곳에 놓인 수천 개의 다루마 인형이 만드는 이색 풍경.</t>
   </si>
   <si>
+    <t>#Temple #Culture #Experience #Healing #Luck</t>
+  </si>
+  <si>
     <t>#절 #문화 #체험 #힐링 #승부운</t>
   </si>
   <si>
@@ -2460,6 +2565,9 @@
     <t>10엔 동전의 배경이자 세계문화유산. 연못에 비친 봉황당의 반영이 아름다운 우지 지역의 대표 명소.</t>
   </si>
   <si>
+    <t>#Temple #Culture #Landmark #WorldHeritage #Garden</t>
+  </si>
+  <si>
     <t>#절 #문화 #랜드마크 #세계유산 #정원</t>
   </si>
   <si>
@@ -2526,6 +2634,9 @@
     <t>다도(센노 리큐)와 문학(요사노 아키코)을 테마로 한 박물관. 본격적인 다도 체험이 가능한 문화 공간.</t>
   </si>
   <si>
+    <t>#Culture #Experience #Indoor #TeaCeremony #History</t>
+  </si>
+  <si>
     <t>#문화 #체험 #실내 #다도 #역사</t>
   </si>
   <si>
@@ -2592,6 +2703,9 @@
     <t>여성 가극단 '다카라즈카'의 전용 극장. 유럽풍의 화려한 극장 내외부와 '꽃의 길' 산책로가 유명.</t>
   </si>
   <si>
+    <t>#Culture #Experience #Indoor #Art</t>
+  </si>
+  <si>
     <t>#문화 #체험 #실내 #예술</t>
   </si>
   <si>
@@ -2658,6 +2772,9 @@
     <t>인스턴트 라면의 발명 기념관. 나만의 컵라면 만들기 체험(예약 필수)과 라면의 역사를 전시.</t>
   </si>
   <si>
+    <t>#Experience #Indoor #WithKids #Creative</t>
+  </si>
+  <si>
     <t>#체험 #실내 #아이와함께 #창작</t>
   </si>
   <si>
@@ -2733,6 +2850,9 @@
     <t>해발 800m 산상의 불교 성지이자 세계유산. 템플스테이와 정진요리, 오쿠노인의 신비로운 분위기.</t>
   </si>
   <si>
+    <t>#Temple #Culture #Healing #Nature #WorldHeritage</t>
+  </si>
+  <si>
     <t>#절 #문화 #힐링 #자연 #세계유산</t>
   </si>
   <si>
@@ -2868,6 +2988,9 @@
     <t>옛 성곽 마을의 정취가 보존된 중요 전통적 건조물 보존 지구. 검은콩, 멧돼지 전골, 도자기 등 특산물 풍부.</t>
   </si>
   <si>
+    <t>#Castle #Culture #Walk #Vibes #Foodie</t>
+  </si>
+  <si>
     <t>#성 #문화 #산책 #감성 #맛집</t>
   </si>
   <si>
@@ -2946,6 +3069,9 @@
     <t>물의 신을 모시는 교토 북부의 신사. 붉은 등불이 늘어선 돌계단 참배길과 여름철 계곡 평상 요리(카와도코).</t>
   </si>
   <si>
+    <t>#Shrine #Culture #Vibes #Healing #NightView</t>
+  </si>
+  <si>
     <t>#신사 #문화 #감성 #힐링 #야경</t>
   </si>
   <si>
@@ -3012,6 +3138,9 @@
     <t>교토 외곽의 고즈넉한 사찰. 이끼 정원 속의 귀여운 동자승 인형(와라베 지조)과 액자 정원 풍경.</t>
   </si>
   <si>
+    <t>#Temple #Culture #Healing #Nature #Garden</t>
+  </si>
+  <si>
     <t>#절 #문화 #힐링 #자연 #정원</t>
   </si>
   <si>
@@ -3090,6 +3219,9 @@
     <t>천하의 부엌' 오사카를 지탱하는 주방용품 전문 거리. 그릇, 칼, 식품 모형 등 요리 관련 모든 물품 취급.</t>
   </si>
   <si>
+    <t>#Shopping #Experience #UniqueSpot #Kitchenware</t>
+  </si>
+  <si>
     <t>#쇼핑 #체험 #이색명소 #주방</t>
   </si>
   <si>
@@ -3156,6 +3288,9 @@
     <t>오사카를 대표하는 아케이드 쇼핑가. 백화점, 명품, SPA 브랜드, 드럭스토어가 밀집한 쇼핑의 중심.</t>
   </si>
   <si>
+    <t>#Ghibli #Shopping #Indoor #Foodie</t>
+  </si>
+  <si>
     <t>#지브리 #쇼핑 #실내 #맛집</t>
   </si>
   <si>
@@ -3228,6 +3363,9 @@
     <t>호리에 지역의 트렌디한 가구 및 패션 거리. 힙한 카페와 편집샵, 스트릿 브랜드가 모여있는 젊음의 거리.</t>
   </si>
   <si>
+    <t>#Shopping #Vibes #Cafe #Fashion</t>
+  </si>
+  <si>
     <t>#쇼핑 #감성 #카페 #패션</t>
   </si>
   <si>
@@ -3300,6 +3438,9 @@
     <t>오사카의 하라주쿠로 불리는 개성 넘치는 거리. 빈티지 의류, 독특한 잡화점, 길거리 음식이 가득한 곳.</t>
   </si>
   <si>
+    <t>#Shopping #Vibes #Foodie #Lively</t>
+  </si>
+  <si>
     <t>#쇼핑 #감성 #맛집 #활기참</t>
   </si>
   <si>
@@ -3372,6 +3513,9 @@
     <t>고가도로 아래 위치한 총 길이 1km의 도매상가. 의류, 잡화, 원단 등을 저렴하게 구매 가능한 실속 쇼핑처.</t>
   </si>
   <si>
+    <t>#Shopping #CostEffective #Indoor #Wholesale</t>
+  </si>
+  <si>
     <t>#쇼핑 #가성비 #실내 #도매</t>
   </si>
   <si>
@@ -3450,6 +3594,9 @@
     <t>전쟁의 피해를 입지 않은 옛 골목과 민가. 레트로한 감성의 카페, 공방, 잡화점이 숨어있는 감성 산책로.</t>
   </si>
   <si>
+    <t>#Cafe #Vibes #Walk #Retro</t>
+  </si>
+  <si>
     <t>#카페 #감성 #산책 #레트로</t>
   </si>
   <si>
@@ -3522,6 +3669,9 @@
     <t>세계적인 엔터테인먼트 테마파크. 슈퍼 닌텐도 월드와 위저딩 월드 오브 해리포터 등 압도적 스케일의 어트랙션 보유.</t>
   </si>
   <si>
+    <t>#Landmark #Experience #AllDay #Lively</t>
+  </si>
+  <si>
     <t>#랜드마크 #체험 #하루종일 #활기참</t>
   </si>
   <si>
@@ -3606,6 +3756,9 @@
     <t>일본 3대 명탕이자 가장 오래된 온천. 철분이 함유된 황금빛 '금탕'과 무색투명한 '은탕'이 유명.</t>
   </si>
   <si>
+    <t>#Healing #Culture #Walk #Rest #HotSpring</t>
+  </si>
+  <si>
     <t>#힐링 #문화 #산책 #휴식 #온천</t>
   </si>
   <si>
@@ -3676,6 +3829,9 @@
   </si>
   <si>
     <t>웅장한 천수각과 해자가 어우러진 오사카의 상징이자 필수 랜드마크</t>
+  </si>
+  <si>
+    <t>#Castle #Culture #Landmark #Walk #History</t>
   </si>
   <si>
     <t>#성 #문화 #랜드마크 #산책 #역사</t>
@@ -3888,12 +4044,6 @@
       <name val="&quot;Google Sans Text&quot;"/>
     </font>
     <font>
-      <b/>
-      <sz val="14.0"/>
-      <color theme="1"/>
-      <name val="&quot;Google Sans Text&quot;"/>
-    </font>
-    <font>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -3910,6 +4060,12 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14.0"/>
+      <color theme="1"/>
+      <name val="&quot;Google Sans Text&quot;"/>
     </font>
     <font>
       <color rgb="FF444746"/>
@@ -3936,7 +4092,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -3990,11 +4146,11 @@
     <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf quotePrefix="1" borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
-    </xf>
-    <xf quotePrefix="1" borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -4005,7 +4161,8 @@
     <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -4228,8 +4385,8 @@
   <cols>
     <col customWidth="1" min="10" max="12" width="23.38"/>
     <col customWidth="1" min="13" max="13" width="91.25"/>
-    <col customWidth="1" min="14" max="14" width="35.75"/>
-    <col customWidth="1" min="25" max="25" width="77.63"/>
+    <col customWidth="1" min="14" max="15" width="35.75"/>
+    <col customWidth="1" min="26" max="26" width="77.63"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4275,3528 +4432,4041 @@
       <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="6"/>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="W1" s="6"/>
       <c r="X1" s="6"/>
       <c r="Y1" s="6"/>
       <c r="Z1" s="6"/>
-      <c r="AA1" s="6"/>
-      <c r="AD1" s="6"/>
+      <c r="AA1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC1" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="AE1" s="6"/>
+      <c r="AF1" s="6"/>
     </row>
     <row r="2">
       <c r="A2" s="7">
         <v>1.0</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="P2" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q2" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="R2" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="O2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="P2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="V2" s="6"/>
+      <c r="Q2" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="S2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="T2" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="U2" s="10" t="s">
+        <v>41</v>
+      </c>
       <c r="W2" s="6"/>
       <c r="X2" s="6"/>
-      <c r="Y2" s="11"/>
+      <c r="Y2" s="6"/>
       <c r="Z2" s="11"/>
-      <c r="AA2" s="6"/>
-      <c r="AD2" s="11"/>
-      <c r="AE2" s="6"/>
+      <c r="AA2" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="AB2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE2" s="11"/>
+      <c r="AF2" s="6"/>
     </row>
     <row r="3">
       <c r="A3" s="7">
         <v>2.0</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="P3" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q3" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="R3" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="S3" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="T3" s="10" t="s">
+      <c r="O3" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="V3" s="6"/>
+      <c r="P3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="R3" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="S3" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="T3" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="U3" s="10" t="s">
+        <v>55</v>
+      </c>
       <c r="W3" s="6"/>
       <c r="X3" s="6"/>
-      <c r="Y3" s="11"/>
+      <c r="Y3" s="6"/>
       <c r="Z3" s="11"/>
-      <c r="AA3" s="6"/>
-      <c r="AD3" s="11"/>
-      <c r="AE3" s="6"/>
+      <c r="AA3" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="AB3" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC3" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE3" s="11"/>
+      <c r="AF3" s="6"/>
     </row>
     <row r="4">
       <c r="A4" s="7">
         <v>3.0</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="P4" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q4" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="R4" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="S4" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="T4" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="V4" s="6"/>
+      <c r="O4" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="R4" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="S4" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="T4" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="U4" s="10" t="s">
+        <v>73</v>
+      </c>
       <c r="W4" s="6"/>
       <c r="X4" s="6"/>
-      <c r="Y4" s="12"/>
-      <c r="Z4" s="11"/>
-      <c r="AA4" s="6"/>
-      <c r="AD4" s="11"/>
-      <c r="AE4" s="6"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="12"/>
+      <c r="AA4" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="AB4" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC4" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE4" s="11"/>
+      <c r="AF4" s="6"/>
     </row>
     <row r="5">
       <c r="A5" s="7">
         <v>4.0</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="P5" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q5" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="R5" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="S5" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="T5" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="V5" s="6"/>
+        <v>83</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="R5" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="S5" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="T5" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="U5" s="10" t="s">
+        <v>90</v>
+      </c>
       <c r="W5" s="6"/>
       <c r="X5" s="6"/>
-      <c r="Y5" s="13"/>
-      <c r="Z5" s="11"/>
-      <c r="AA5" s="6"/>
-      <c r="AD5" s="11"/>
-      <c r="AE5" s="6"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="13"/>
+      <c r="AA5" s="6">
+        <v>4.0</v>
+      </c>
+      <c r="AB5" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC5" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="AE5" s="11"/>
+      <c r="AF5" s="6"/>
     </row>
     <row r="6">
       <c r="A6" s="7">
         <v>5.0</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="P6" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q6" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="R6" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="S6" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="T6" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="V6" s="6"/>
+        <v>101</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q6" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="R6" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="S6" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="T6" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="U6" s="10" t="s">
+        <v>108</v>
+      </c>
       <c r="W6" s="6"/>
       <c r="X6" s="6"/>
-      <c r="Y6" s="14"/>
-      <c r="Z6" s="11"/>
-      <c r="AA6" s="6"/>
-      <c r="AD6" s="11"/>
-      <c r="AE6" s="6"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="14"/>
+      <c r="AA6" s="6">
+        <v>5.0</v>
+      </c>
+      <c r="AB6" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC6" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE6" s="11"/>
+      <c r="AF6" s="6"/>
     </row>
     <row r="7">
       <c r="A7" s="7">
         <v>6.0</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="P7" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q7" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="R7" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="S7" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="T7" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="V7" s="6"/>
+        <v>116</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q7" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="R7" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="S7" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="T7" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="U7" s="10" t="s">
+        <v>121</v>
+      </c>
       <c r="W7" s="6"/>
       <c r="X7" s="6"/>
-      <c r="Y7" s="15"/>
-      <c r="Z7" s="11"/>
-      <c r="AA7" s="6"/>
-      <c r="AD7" s="11"/>
-      <c r="AE7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="15"/>
+      <c r="AA7" s="6">
+        <v>6.0</v>
+      </c>
+      <c r="AB7" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC7" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE7" s="11"/>
+      <c r="AF7" s="6"/>
     </row>
     <row r="8">
       <c r="A8" s="7">
         <v>7.0</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="N8" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="P8" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q8" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="R8" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="S8" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="T8" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="V8" s="6"/>
+        <v>131</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="O8" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q8" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="R8" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="S8" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="T8" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="U8" s="10" t="s">
+        <v>139</v>
+      </c>
       <c r="W8" s="6"/>
       <c r="X8" s="6"/>
-      <c r="Y8" s="17"/>
-      <c r="Z8" s="11"/>
-      <c r="AA8" s="11"/>
-      <c r="AD8" s="11"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="17"/>
+      <c r="AA8" s="6">
+        <v>7.0</v>
+      </c>
+      <c r="AB8" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC8" s="6" t="s">
+        <v>132</v>
+      </c>
       <c r="AE8" s="11"/>
+      <c r="AF8" s="11"/>
     </row>
     <row r="9">
       <c r="A9" s="7">
         <v>8.0</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="P9" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q9" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="R9" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="S9" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="T9" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="V9" s="6"/>
+        <v>146</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q9" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="R9" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="S9" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="T9" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="U9" s="10" t="s">
+        <v>153</v>
+      </c>
       <c r="W9" s="6"/>
       <c r="X9" s="6"/>
-      <c r="Y9" s="18"/>
+      <c r="Y9" s="6"/>
       <c r="Z9" s="18"/>
-      <c r="AA9" s="6"/>
-      <c r="AD9" s="11"/>
-      <c r="AE9" s="6"/>
+      <c r="AA9" s="6">
+        <v>8.0</v>
+      </c>
+      <c r="AB9" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="AC9" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="AE9" s="11"/>
+      <c r="AF9" s="6"/>
     </row>
     <row r="10">
       <c r="A10" s="7">
         <v>9.0</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="P10" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q10" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="R10" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="S10" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="T10" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="V10" s="6"/>
+        <v>160</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q10" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="R10" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="S10" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="T10" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="U10" s="10" t="s">
+        <v>167</v>
+      </c>
       <c r="W10" s="6"/>
       <c r="X10" s="6"/>
-      <c r="Y10" s="18"/>
-      <c r="Z10" s="19"/>
-      <c r="AA10" s="6"/>
-      <c r="AD10" s="11"/>
-      <c r="AE10" s="6"/>
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="18"/>
+      <c r="AA10" s="6">
+        <v>9.0</v>
+      </c>
+      <c r="AB10" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="AC10" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="AE10" s="11"/>
+      <c r="AF10" s="6"/>
     </row>
     <row r="11">
       <c r="A11" s="7">
         <v>10.0</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="N11" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="P11" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q11" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="R11" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="S11" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="T11" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="V11" s="6"/>
+        <v>175</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q11" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="R11" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="S11" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="T11" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="U11" s="10" t="s">
+        <v>182</v>
+      </c>
       <c r="W11" s="6"/>
       <c r="X11" s="6"/>
-      <c r="Y11" s="18"/>
-      <c r="Z11" s="19"/>
-      <c r="AA11" s="6"/>
-      <c r="AD11" s="11"/>
-      <c r="AE11" s="6"/>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="18"/>
+      <c r="AA11" s="6">
+        <v>10.0</v>
+      </c>
+      <c r="AB11" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="AC11" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="AE11" s="11"/>
+      <c r="AF11" s="6"/>
     </row>
     <row r="12">
       <c r="A12" s="7">
         <v>11.0</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="D12" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>158</v>
-      </c>
       <c r="F12" s="8" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="N12" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="P12" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q12" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="R12" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="S12" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="T12" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="V12" s="6"/>
+        <v>188</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q12" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="R12" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="S12" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="T12" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="U12" s="10" t="s">
+        <v>193</v>
+      </c>
       <c r="W12" s="6"/>
       <c r="X12" s="6"/>
-      <c r="Y12" s="18"/>
-      <c r="Z12" s="19"/>
-      <c r="AA12" s="6"/>
-      <c r="AD12" s="11"/>
-      <c r="AE12" s="6"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="18"/>
+      <c r="AA12" s="6">
+        <v>11.0</v>
+      </c>
+      <c r="AB12" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="AC12" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="AE12" s="11"/>
+      <c r="AF12" s="6"/>
     </row>
     <row r="13">
       <c r="A13" s="7">
         <v>12.0</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="N13" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="O13" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="P13" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q13" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="R13" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="S13" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="T13" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="V13" s="6"/>
+        <v>200</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q13" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="R13" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="S13" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="T13" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="U13" s="10" t="s">
+        <v>207</v>
+      </c>
       <c r="W13" s="6"/>
       <c r="X13" s="6"/>
-      <c r="Y13" s="18"/>
-      <c r="Z13" s="19"/>
-      <c r="AA13" s="6"/>
-      <c r="AD13" s="11"/>
-      <c r="AE13" s="6"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="18"/>
+      <c r="AA13" s="6">
+        <v>12.0</v>
+      </c>
+      <c r="AB13" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="AC13" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="AE13" s="11"/>
+      <c r="AF13" s="6"/>
     </row>
     <row r="14">
       <c r="A14" s="7">
         <v>13.0</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="I14" s="16" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="M14" s="8" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="P14" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q14" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="R14" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="S14" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="T14" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="V14" s="6"/>
+        <v>217</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q14" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="R14" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="S14" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="T14" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="U14" s="10" t="s">
+        <v>224</v>
+      </c>
       <c r="W14" s="6"/>
       <c r="X14" s="6"/>
-      <c r="Y14" s="18"/>
-      <c r="Z14" s="19"/>
-      <c r="AA14" s="6"/>
-      <c r="AD14" s="11"/>
-      <c r="AE14" s="6"/>
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="18"/>
+      <c r="AA14" s="6">
+        <v>13.0</v>
+      </c>
+      <c r="AB14" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="AC14" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="AE14" s="11"/>
+      <c r="AF14" s="6"/>
     </row>
     <row r="15">
       <c r="A15" s="7">
         <v>14.0</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="N15" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="P15" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q15" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="R15" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="S15" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="T15" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="V15" s="6"/>
+        <v>233</v>
+      </c>
+      <c r="O15" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q15" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="R15" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="S15" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="T15" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="U15" s="10" t="s">
+        <v>240</v>
+      </c>
       <c r="W15" s="6"/>
       <c r="X15" s="6"/>
-      <c r="Y15" s="18"/>
-      <c r="Z15" s="19"/>
-      <c r="AA15" s="6"/>
-      <c r="AD15" s="11"/>
-      <c r="AE15" s="6"/>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="18"/>
+      <c r="AA15" s="6">
+        <v>14.0</v>
+      </c>
+      <c r="AB15" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="AC15" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="AE15" s="11"/>
+      <c r="AF15" s="6"/>
     </row>
     <row r="16">
       <c r="A16" s="7">
         <v>15.0</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>225</v>
+        <v>243</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="I16" s="16" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
       <c r="M16" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="N16" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="P16" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q16" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="R16" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="S16" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="T16" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="V16" s="6"/>
+        <v>248</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="O16" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q16" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="R16" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="S16" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="T16" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="U16" s="10" t="s">
+        <v>254</v>
+      </c>
       <c r="W16" s="6"/>
       <c r="X16" s="6"/>
-      <c r="Y16" s="18"/>
-      <c r="Z16" s="19"/>
-      <c r="AA16" s="11"/>
-      <c r="AD16" s="11"/>
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="18"/>
+      <c r="AA16" s="6">
+        <v>15.0</v>
+      </c>
+      <c r="AB16" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="AC16" s="6" t="s">
+        <v>249</v>
+      </c>
       <c r="AE16" s="11"/>
+      <c r="AF16" s="11"/>
     </row>
     <row r="17">
       <c r="A17" s="7">
         <v>16.0</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="M17" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="N17" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="P17" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q17" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="R17" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="S17" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="T17" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="V17" s="6"/>
+        <v>260</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="O17" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q17" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="R17" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="S17" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="T17" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="U17" s="10" t="s">
+        <v>266</v>
+      </c>
       <c r="W17" s="6"/>
       <c r="X17" s="6"/>
-      <c r="Y17" s="18"/>
-      <c r="Z17" s="19"/>
-      <c r="AA17" s="11"/>
-      <c r="AD17" s="11"/>
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="18"/>
+      <c r="AA17" s="6">
+        <v>16.0</v>
+      </c>
+      <c r="AB17" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="AC17" s="6" t="s">
+        <v>261</v>
+      </c>
       <c r="AE17" s="11"/>
+      <c r="AF17" s="11"/>
     </row>
     <row r="18">
       <c r="A18" s="7">
         <v>17.0</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>247</v>
+        <v>267</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>248</v>
+        <v>268</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="M18" s="8" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="N18" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="P18" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q18" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="R18" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="S18" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="T18" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="V18" s="6"/>
+        <v>276</v>
+      </c>
+      <c r="O18" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q18" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="R18" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="S18" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="T18" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="U18" s="10" t="s">
+        <v>281</v>
+      </c>
       <c r="W18" s="6"/>
       <c r="X18" s="6"/>
-      <c r="Y18" s="18"/>
-      <c r="Z18" s="19"/>
-      <c r="AA18" s="6"/>
-      <c r="AD18" s="11"/>
-      <c r="AE18" s="6"/>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="18"/>
+      <c r="AA18" s="6">
+        <v>17.0</v>
+      </c>
+      <c r="AB18" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="AC18" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="AE18" s="11"/>
+      <c r="AF18" s="6"/>
     </row>
     <row r="19">
       <c r="A19" s="7">
         <v>18.0</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>261</v>
+        <v>282</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>262</v>
+        <v>283</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>263</v>
+        <v>284</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>264</v>
+        <v>285</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>265</v>
+        <v>286</v>
       </c>
       <c r="N19" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="O19" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="P19" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="Q19" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="R19" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="S19" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="T19" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="V19" s="6"/>
+        <v>287</v>
+      </c>
+      <c r="O19" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q19" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="R19" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="S19" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="T19" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="U19" s="10" t="s">
+        <v>294</v>
+      </c>
       <c r="W19" s="6"/>
       <c r="X19" s="6"/>
-      <c r="Y19" s="18"/>
-      <c r="Z19" s="19"/>
-      <c r="AA19" s="6"/>
-      <c r="AD19" s="11"/>
-      <c r="AE19" s="6"/>
+      <c r="Y19" s="6"/>
+      <c r="Z19" s="18"/>
+      <c r="AA19" s="6">
+        <v>18.0</v>
+      </c>
+      <c r="AB19" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="AC19" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="AE19" s="11"/>
+      <c r="AF19" s="6"/>
     </row>
     <row r="20">
       <c r="A20" s="7">
         <v>19.0</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>273</v>
+        <v>295</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>274</v>
+        <v>296</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>275</v>
+        <v>297</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>276</v>
+        <v>298</v>
       </c>
       <c r="M20" s="8" t="s">
-        <v>277</v>
+        <v>299</v>
       </c>
       <c r="N20" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="P20" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q20" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="R20" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="S20" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="T20" s="10" t="s">
-        <v>282</v>
-      </c>
-      <c r="V20" s="6"/>
+        <v>300</v>
+      </c>
+      <c r="O20" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q20" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="R20" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="S20" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="T20" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="U20" s="10" t="s">
+        <v>305</v>
+      </c>
       <c r="W20" s="6"/>
       <c r="X20" s="6"/>
-      <c r="Y20" s="18"/>
-      <c r="Z20" s="19"/>
-      <c r="AA20" s="6"/>
-      <c r="AD20" s="11"/>
-      <c r="AE20" s="6"/>
+      <c r="Y20" s="6"/>
+      <c r="Z20" s="18"/>
+      <c r="AA20" s="6">
+        <v>19.0</v>
+      </c>
+      <c r="AB20" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="AC20" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="AE20" s="11"/>
+      <c r="AF20" s="6"/>
     </row>
     <row r="21">
       <c r="A21" s="7">
         <v>20.0</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>283</v>
+        <v>306</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>284</v>
+        <v>307</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>285</v>
+        <v>308</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>286</v>
+        <v>309</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>287</v>
+        <v>310</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>288</v>
+        <v>311</v>
       </c>
       <c r="M21" s="8" t="s">
-        <v>289</v>
+        <v>312</v>
       </c>
       <c r="N21" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="P21" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="Q21" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="R21" s="10" t="s">
-        <v>294</v>
-      </c>
-      <c r="S21" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="T21" s="10" t="s">
-        <v>296</v>
-      </c>
-      <c r="V21" s="6"/>
+        <v>313</v>
+      </c>
+      <c r="O21" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q21" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="R21" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="S21" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="T21" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="U21" s="10" t="s">
+        <v>320</v>
+      </c>
       <c r="W21" s="6"/>
       <c r="X21" s="6"/>
-      <c r="Y21" s="18"/>
-      <c r="Z21" s="19"/>
-      <c r="AA21" s="6"/>
-      <c r="AD21" s="11"/>
-      <c r="AE21" s="6"/>
+      <c r="Y21" s="6"/>
+      <c r="Z21" s="18"/>
+      <c r="AA21" s="6">
+        <v>20.0</v>
+      </c>
+      <c r="AB21" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="AC21" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="AE21" s="11"/>
+      <c r="AF21" s="6"/>
     </row>
     <row r="22">
       <c r="A22" s="7">
         <v>21.0</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>297</v>
+        <v>321</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>298</v>
+        <v>322</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>300</v>
+        <v>324</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>301</v>
+        <v>325</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>302</v>
+        <v>326</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>303</v>
+        <v>327</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>304</v>
+        <v>328</v>
       </c>
       <c r="M22" s="8" t="s">
-        <v>305</v>
+        <v>329</v>
       </c>
       <c r="N22" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="P22" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q22" s="9" t="s">
-        <v>307</v>
-      </c>
-      <c r="R22" s="10" t="s">
-        <v>308</v>
-      </c>
-      <c r="S22" s="9" t="s">
-        <v>309</v>
-      </c>
-      <c r="T22" s="10" t="s">
-        <v>310</v>
-      </c>
-      <c r="V22" s="6"/>
+        <v>330</v>
+      </c>
+      <c r="O22" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q22" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="R22" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="S22" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="T22" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="U22" s="10" t="s">
+        <v>335</v>
+      </c>
       <c r="W22" s="6"/>
       <c r="X22" s="6"/>
-      <c r="Y22" s="18"/>
-      <c r="Z22" s="19"/>
-      <c r="AA22" s="6"/>
-      <c r="AD22" s="11"/>
-      <c r="AE22" s="6"/>
+      <c r="Y22" s="6"/>
+      <c r="Z22" s="18"/>
+      <c r="AA22" s="6">
+        <v>21.0</v>
+      </c>
+      <c r="AB22" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="AC22" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="AE22" s="11"/>
+      <c r="AF22" s="6"/>
     </row>
     <row r="23">
       <c r="A23" s="7">
         <v>22.0</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>311</v>
+        <v>336</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>312</v>
+        <v>337</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>313</v>
+        <v>338</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>314</v>
+        <v>339</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>315</v>
+        <v>340</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>286</v>
+        <v>309</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>287</v>
+        <v>310</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>316</v>
+        <v>341</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="N23" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="P23" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="Q23" s="9" t="s">
-        <v>321</v>
-      </c>
-      <c r="R23" s="10" t="s">
-        <v>322</v>
-      </c>
-      <c r="S23" s="9" t="s">
-        <v>323</v>
-      </c>
-      <c r="T23" s="10" t="s">
-        <v>324</v>
-      </c>
-      <c r="V23" s="6"/>
+        <v>342</v>
+      </c>
+      <c r="N23" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="O23" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q23" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="R23" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="S23" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="T23" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="U23" s="10" t="s">
+        <v>350</v>
+      </c>
       <c r="W23" s="6"/>
       <c r="X23" s="6"/>
-      <c r="Y23" s="18"/>
-      <c r="Z23" s="19"/>
-      <c r="AA23" s="11"/>
-      <c r="AD23" s="11"/>
+      <c r="Y23" s="6"/>
+      <c r="Z23" s="18"/>
+      <c r="AA23" s="6">
+        <v>22.0</v>
+      </c>
+      <c r="AB23" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="AC23" s="6" t="s">
+        <v>343</v>
+      </c>
       <c r="AE23" s="11"/>
+      <c r="AF23" s="11"/>
     </row>
     <row r="24">
       <c r="A24" s="7">
         <v>23.0</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>325</v>
+        <v>351</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>326</v>
+        <v>352</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>327</v>
+        <v>353</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>286</v>
+        <v>309</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>287</v>
+        <v>310</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>328</v>
+        <v>354</v>
       </c>
       <c r="M24" s="8" t="s">
-        <v>329</v>
+        <v>355</v>
       </c>
       <c r="N24" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="P24" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q24" s="9" t="s">
-        <v>331</v>
-      </c>
-      <c r="R24" s="10" t="s">
-        <v>332</v>
-      </c>
-      <c r="S24" s="9" t="s">
-        <v>333</v>
-      </c>
-      <c r="T24" s="10" t="s">
-        <v>334</v>
-      </c>
-      <c r="V24" s="6"/>
+        <v>356</v>
+      </c>
+      <c r="O24" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q24" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="R24" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="S24" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="T24" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="U24" s="10" t="s">
+        <v>361</v>
+      </c>
       <c r="W24" s="6"/>
       <c r="X24" s="6"/>
-      <c r="Y24" s="18"/>
-      <c r="Z24" s="19"/>
-      <c r="AA24" s="6"/>
-      <c r="AD24" s="11"/>
-      <c r="AE24" s="6"/>
+      <c r="Y24" s="6"/>
+      <c r="Z24" s="18"/>
+      <c r="AA24" s="6">
+        <v>23.0</v>
+      </c>
+      <c r="AB24" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="AC24" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="AE24" s="11"/>
+      <c r="AF24" s="6"/>
     </row>
     <row r="25">
       <c r="A25" s="7">
         <v>24.0</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>335</v>
+        <v>362</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>336</v>
+        <v>363</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>337</v>
+        <v>364</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>338</v>
+        <v>365</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>339</v>
+        <v>366</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>340</v>
+        <v>367</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>341</v>
+        <v>368</v>
       </c>
       <c r="M25" s="8" t="s">
-        <v>342</v>
+        <v>369</v>
       </c>
       <c r="N25" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="O25" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="P25" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q25" s="9" t="s">
-        <v>344</v>
-      </c>
-      <c r="R25" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="S25" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="T25" s="10" t="s">
-        <v>347</v>
-      </c>
-      <c r="V25" s="6"/>
+        <v>370</v>
+      </c>
+      <c r="O25" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="P25" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q25" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="R25" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="S25" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="T25" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="U25" s="10" t="s">
+        <v>375</v>
+      </c>
       <c r="W25" s="6"/>
       <c r="X25" s="6"/>
-      <c r="Y25" s="18"/>
-      <c r="Z25" s="19"/>
-      <c r="AA25" s="6"/>
-      <c r="AD25" s="11"/>
-      <c r="AE25" s="6"/>
+      <c r="Y25" s="6"/>
+      <c r="Z25" s="18"/>
+      <c r="AA25" s="6">
+        <v>24.0</v>
+      </c>
+      <c r="AB25" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="AC25" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="AE25" s="11"/>
+      <c r="AF25" s="6"/>
     </row>
     <row r="26">
       <c r="A26" s="7">
         <v>25.0</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>348</v>
+        <v>376</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>349</v>
+        <v>377</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>350</v>
+        <v>378</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>286</v>
+        <v>309</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>287</v>
+        <v>310</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>351</v>
+        <v>379</v>
       </c>
       <c r="M26" s="8" t="s">
-        <v>352</v>
+        <v>380</v>
       </c>
       <c r="N26" s="6" t="s">
-        <v>353</v>
-      </c>
-      <c r="O26" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="P26" s="8" t="s">
-        <v>355</v>
-      </c>
-      <c r="Q26" s="9" t="s">
-        <v>356</v>
-      </c>
-      <c r="R26" s="10" t="s">
-        <v>357</v>
-      </c>
-      <c r="S26" s="9" t="s">
-        <v>358</v>
-      </c>
-      <c r="T26" s="10" t="s">
-        <v>359</v>
-      </c>
-      <c r="V26" s="6"/>
+        <v>381</v>
+      </c>
+      <c r="O26" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q26" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="R26" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="S26" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="T26" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="U26" s="10" t="s">
+        <v>388</v>
+      </c>
       <c r="W26" s="6"/>
       <c r="X26" s="6"/>
-      <c r="Y26" s="18"/>
-      <c r="Z26" s="19"/>
-      <c r="AA26" s="6"/>
-      <c r="AD26" s="11"/>
-      <c r="AE26" s="6"/>
+      <c r="Y26" s="6"/>
+      <c r="Z26" s="18"/>
+      <c r="AA26" s="6">
+        <v>25.0</v>
+      </c>
+      <c r="AB26" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="AC26" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="AE26" s="11"/>
+      <c r="AF26" s="6"/>
     </row>
     <row r="27">
       <c r="A27" s="7">
         <v>26.0</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>360</v>
+        <v>389</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>361</v>
+        <v>390</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>362</v>
+        <v>391</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>363</v>
+        <v>392</v>
       </c>
       <c r="K27" s="8" t="s">
-        <v>364</v>
+        <v>393</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>365</v>
+        <v>394</v>
       </c>
       <c r="M27" s="8" t="s">
-        <v>366</v>
+        <v>395</v>
       </c>
       <c r="N27" s="6" t="s">
-        <v>367</v>
-      </c>
-      <c r="O27" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="P27" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q27" s="9" t="s">
-        <v>368</v>
-      </c>
-      <c r="R27" s="10" t="s">
-        <v>369</v>
-      </c>
-      <c r="S27" s="9" t="s">
-        <v>370</v>
-      </c>
-      <c r="T27" s="10" t="s">
-        <v>371</v>
-      </c>
-      <c r="V27" s="6"/>
+        <v>396</v>
+      </c>
+      <c r="O27" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q27" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="R27" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="S27" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="T27" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="U27" s="10" t="s">
+        <v>401</v>
+      </c>
       <c r="W27" s="6"/>
       <c r="X27" s="6"/>
-      <c r="Y27" s="18"/>
-      <c r="Z27" s="19"/>
-      <c r="AA27" s="6"/>
-      <c r="AD27" s="11"/>
-      <c r="AE27" s="6"/>
+      <c r="Y27" s="6"/>
+      <c r="Z27" s="18"/>
+      <c r="AA27" s="6">
+        <v>26.0</v>
+      </c>
+      <c r="AB27" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="AC27" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="AE27" s="11"/>
+      <c r="AF27" s="6"/>
     </row>
     <row r="28">
       <c r="A28" s="7">
         <v>27.0</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>372</v>
+        <v>402</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>373</v>
+        <v>403</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>374</v>
+        <v>404</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="I28" s="16" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>375</v>
+        <v>405</v>
       </c>
       <c r="K28" s="8" t="s">
-        <v>376</v>
+        <v>406</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>377</v>
+        <v>407</v>
       </c>
       <c r="M28" s="8" t="s">
-        <v>378</v>
+        <v>408</v>
       </c>
       <c r="N28" s="6" t="s">
-        <v>379</v>
-      </c>
-      <c r="O28" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="P28" s="8" t="s">
-        <v>381</v>
-      </c>
-      <c r="Q28" s="9" t="s">
-        <v>382</v>
-      </c>
-      <c r="R28" s="10" t="s">
-        <v>383</v>
-      </c>
-      <c r="S28" s="9" t="s">
-        <v>384</v>
-      </c>
-      <c r="T28" s="10" t="s">
-        <v>385</v>
-      </c>
-      <c r="V28" s="6"/>
+        <v>409</v>
+      </c>
+      <c r="O28" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="P28" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="Q28" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="R28" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="S28" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="T28" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="U28" s="10" t="s">
+        <v>416</v>
+      </c>
       <c r="W28" s="6"/>
       <c r="X28" s="6"/>
-      <c r="Y28" s="18"/>
-      <c r="Z28" s="19"/>
-      <c r="AA28" s="6"/>
-      <c r="AD28" s="11"/>
-      <c r="AE28" s="6"/>
+      <c r="Y28" s="6"/>
+      <c r="Z28" s="18"/>
+      <c r="AA28" s="6">
+        <v>27.0</v>
+      </c>
+      <c r="AB28" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="AC28" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="AE28" s="11"/>
+      <c r="AF28" s="6"/>
     </row>
     <row r="29">
       <c r="A29" s="7">
         <v>28.0</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>386</v>
+        <v>417</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>387</v>
+        <v>418</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>388</v>
+        <v>419</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>363</v>
+        <v>392</v>
       </c>
       <c r="K29" s="8" t="s">
-        <v>364</v>
+        <v>393</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>389</v>
+        <v>420</v>
       </c>
       <c r="M29" s="8" t="s">
-        <v>390</v>
+        <v>421</v>
       </c>
       <c r="N29" s="6" t="s">
-        <v>391</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="P29" s="8" t="s">
-        <v>393</v>
-      </c>
-      <c r="Q29" s="9" t="s">
-        <v>394</v>
-      </c>
-      <c r="R29" s="10" t="s">
-        <v>395</v>
-      </c>
-      <c r="S29" s="9" t="s">
-        <v>396</v>
-      </c>
-      <c r="T29" s="10" t="s">
-        <v>397</v>
-      </c>
-      <c r="V29" s="6"/>
+        <v>422</v>
+      </c>
+      <c r="O29" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="Q29" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="R29" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="S29" s="10" t="s">
+        <v>427</v>
+      </c>
+      <c r="T29" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="U29" s="10" t="s">
+        <v>429</v>
+      </c>
       <c r="W29" s="6"/>
       <c r="X29" s="6"/>
-      <c r="Y29" s="18"/>
-      <c r="Z29" s="19"/>
-      <c r="AA29" s="6"/>
-      <c r="AD29" s="11"/>
-      <c r="AE29" s="6"/>
+      <c r="Y29" s="6"/>
+      <c r="Z29" s="18"/>
+      <c r="AA29" s="6">
+        <v>28.0</v>
+      </c>
+      <c r="AB29" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="AC29" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="AE29" s="11"/>
+      <c r="AF29" s="6"/>
     </row>
     <row r="30">
       <c r="A30" s="7">
         <v>29.0</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>398</v>
+        <v>430</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>399</v>
+        <v>431</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>400</v>
+        <v>432</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="I30" s="16" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>375</v>
+        <v>405</v>
       </c>
       <c r="K30" s="8" t="s">
-        <v>376</v>
+        <v>406</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>401</v>
+        <v>433</v>
       </c>
       <c r="M30" s="8" t="s">
-        <v>402</v>
+        <v>434</v>
       </c>
       <c r="N30" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="O30" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="P30" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q30" s="9" t="s">
-        <v>404</v>
-      </c>
-      <c r="R30" s="10" t="s">
-        <v>405</v>
-      </c>
-      <c r="S30" s="9" t="s">
-        <v>406</v>
-      </c>
-      <c r="T30" s="10" t="s">
-        <v>407</v>
-      </c>
-      <c r="V30" s="6"/>
+        <v>435</v>
+      </c>
+      <c r="O30" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="P30" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q30" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="R30" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="S30" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="T30" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="U30" s="10" t="s">
+        <v>440</v>
+      </c>
       <c r="W30" s="6"/>
       <c r="X30" s="6"/>
-      <c r="Y30" s="18"/>
-      <c r="Z30" s="19"/>
-      <c r="AA30" s="6"/>
-      <c r="AD30" s="11"/>
-      <c r="AE30" s="6"/>
+      <c r="Y30" s="6"/>
+      <c r="Z30" s="18"/>
+      <c r="AA30" s="6">
+        <v>29.0</v>
+      </c>
+      <c r="AB30" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="AC30" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="AE30" s="11"/>
+      <c r="AF30" s="6"/>
     </row>
     <row r="31">
       <c r="A31" s="7">
         <v>30.0</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>408</v>
+        <v>441</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>409</v>
+        <v>442</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>410</v>
+        <v>443</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="I31" s="16" t="s">
-        <v>411</v>
+        <v>444</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>412</v>
+        <v>445</v>
       </c>
       <c r="K31" s="8" t="s">
-        <v>413</v>
+        <v>446</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="M31" s="20" t="s">
-        <v>415</v>
+        <v>447</v>
+      </c>
+      <c r="M31" s="19" t="s">
+        <v>448</v>
       </c>
       <c r="N31" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="O31" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="P31" s="8" t="s">
-        <v>418</v>
-      </c>
-      <c r="Q31" s="9" t="s">
-        <v>419</v>
-      </c>
-      <c r="R31" s="10" t="s">
-        <v>420</v>
-      </c>
-      <c r="S31" s="9" t="s">
-        <v>421</v>
-      </c>
-      <c r="T31" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="V31" s="6"/>
+        <v>449</v>
+      </c>
+      <c r="O31" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="P31" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q31" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="R31" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="S31" s="10" t="s">
+        <v>454</v>
+      </c>
+      <c r="T31" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="U31" s="10" t="s">
+        <v>456</v>
+      </c>
       <c r="W31" s="6"/>
       <c r="X31" s="6"/>
-      <c r="Y31" s="18"/>
-      <c r="Z31" s="19"/>
-      <c r="AA31" s="6"/>
-      <c r="AD31" s="11"/>
-      <c r="AE31" s="6"/>
+      <c r="Y31" s="6"/>
+      <c r="Z31" s="18"/>
+      <c r="AA31" s="6">
+        <v>30.0</v>
+      </c>
+      <c r="AB31" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="AC31" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="AE31" s="11"/>
+      <c r="AF31" s="6"/>
     </row>
     <row r="32">
       <c r="A32" s="7">
         <v>31.0</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>423</v>
+        <v>457</v>
       </c>
       <c r="C32" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I32" s="16" t="s">
+        <v>460</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="K32" s="8" t="s">
+        <v>462</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="M32" s="8" t="s">
+        <v>464</v>
+      </c>
+      <c r="N32" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="O32" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="P32" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="Q32" s="8" t="s">
         <v>425</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I32" s="16" t="s">
-        <v>426</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="K32" s="8" t="s">
-        <v>428</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="M32" s="8" t="s">
-        <v>430</v>
-      </c>
-      <c r="N32" s="6" t="s">
-        <v>431</v>
-      </c>
-      <c r="O32" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="P32" s="8" t="s">
-        <v>393</v>
-      </c>
-      <c r="Q32" s="9" t="s">
-        <v>432</v>
-      </c>
-      <c r="R32" s="10" t="s">
-        <v>433</v>
-      </c>
-      <c r="S32" s="9" t="s">
-        <v>434</v>
-      </c>
-      <c r="T32" s="10" t="s">
-        <v>435</v>
-      </c>
-      <c r="V32" s="6"/>
+      <c r="R32" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="S32" s="10" t="s">
+        <v>468</v>
+      </c>
+      <c r="T32" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="U32" s="10" t="s">
+        <v>470</v>
+      </c>
       <c r="W32" s="6"/>
       <c r="X32" s="6"/>
-      <c r="Y32" s="18"/>
-      <c r="Z32" s="19"/>
-      <c r="AA32" s="6"/>
-      <c r="AD32" s="11"/>
-      <c r="AE32" s="6"/>
+      <c r="Y32" s="6"/>
+      <c r="Z32" s="18"/>
+      <c r="AA32" s="6">
+        <v>31.0</v>
+      </c>
+      <c r="AB32" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="AC32" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="AE32" s="11"/>
+      <c r="AF32" s="6"/>
     </row>
     <row r="33">
       <c r="A33" s="7">
         <v>32.0</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>436</v>
+        <v>471</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>437</v>
+        <v>472</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>438</v>
+        <v>473</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>439</v>
+        <v>474</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>440</v>
+        <v>475</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="I33" s="16" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>375</v>
+        <v>405</v>
       </c>
       <c r="K33" s="8" t="s">
-        <v>376</v>
+        <v>406</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>441</v>
+        <v>476</v>
       </c>
       <c r="M33" s="8" t="s">
-        <v>442</v>
+        <v>477</v>
       </c>
       <c r="N33" s="6" t="s">
-        <v>443</v>
-      </c>
-      <c r="O33" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="P33" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q33" s="9" t="s">
-        <v>444</v>
-      </c>
-      <c r="R33" s="10" t="s">
-        <v>445</v>
-      </c>
-      <c r="S33" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="T33" s="10" t="s">
-        <v>447</v>
-      </c>
-      <c r="V33" s="6"/>
+        <v>478</v>
+      </c>
+      <c r="O33" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q33" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="R33" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="S33" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="T33" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="U33" s="10" t="s">
+        <v>483</v>
+      </c>
       <c r="W33" s="6"/>
       <c r="X33" s="6"/>
-      <c r="Y33" s="18"/>
-      <c r="Z33" s="19"/>
-      <c r="AA33" s="6"/>
-      <c r="AD33" s="11"/>
-      <c r="AE33" s="6"/>
+      <c r="Y33" s="6"/>
+      <c r="Z33" s="18"/>
+      <c r="AA33" s="6">
+        <v>32.0</v>
+      </c>
+      <c r="AB33" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="AC33" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="AE33" s="11"/>
+      <c r="AF33" s="6"/>
     </row>
     <row r="34">
       <c r="A34" s="7">
         <v>33.0</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>449</v>
+        <v>485</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>450</v>
+        <v>486</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>300</v>
+        <v>324</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>301</v>
+        <v>325</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="I34" s="16" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>412</v>
+        <v>445</v>
       </c>
       <c r="K34" s="8" t="s">
-        <v>413</v>
+        <v>446</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>451</v>
+        <v>487</v>
       </c>
       <c r="M34" s="8" t="s">
-        <v>452</v>
+        <v>488</v>
       </c>
       <c r="N34" s="6" t="s">
-        <v>453</v>
-      </c>
-      <c r="O34" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="P34" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q34" s="9" t="s">
-        <v>454</v>
-      </c>
-      <c r="R34" s="10" t="s">
-        <v>455</v>
-      </c>
-      <c r="S34" s="9" t="s">
-        <v>456</v>
-      </c>
-      <c r="T34" s="10" t="s">
-        <v>457</v>
-      </c>
-      <c r="V34" s="6"/>
+        <v>489</v>
+      </c>
+      <c r="O34" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="P34" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q34" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="R34" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="S34" s="10" t="s">
+        <v>492</v>
+      </c>
+      <c r="T34" s="9" t="s">
+        <v>493</v>
+      </c>
+      <c r="U34" s="10" t="s">
+        <v>494</v>
+      </c>
       <c r="W34" s="6"/>
       <c r="X34" s="6"/>
-      <c r="Y34" s="18"/>
-      <c r="Z34" s="19"/>
-      <c r="AA34" s="6"/>
-      <c r="AD34" s="11"/>
-      <c r="AE34" s="6"/>
+      <c r="Y34" s="6"/>
+      <c r="Z34" s="18"/>
+      <c r="AA34" s="6">
+        <v>33.0</v>
+      </c>
+      <c r="AB34" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="AC34" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="AE34" s="11"/>
+      <c r="AF34" s="6"/>
     </row>
     <row r="35">
       <c r="A35" s="7">
         <v>34.0</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>458</v>
+        <v>495</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>459</v>
+        <v>496</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>460</v>
+        <v>497</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>286</v>
+        <v>309</v>
       </c>
       <c r="K35" s="8" t="s">
-        <v>287</v>
+        <v>310</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>461</v>
+        <v>498</v>
       </c>
       <c r="M35" s="8" t="s">
-        <v>462</v>
+        <v>499</v>
       </c>
       <c r="N35" s="6" t="s">
-        <v>463</v>
-      </c>
-      <c r="O35" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="P35" s="8" t="s">
-        <v>393</v>
-      </c>
-      <c r="Q35" s="9" t="s">
-        <v>464</v>
-      </c>
-      <c r="R35" s="10" t="s">
-        <v>465</v>
-      </c>
-      <c r="S35" s="9" t="s">
-        <v>466</v>
-      </c>
-      <c r="T35" s="10" t="s">
-        <v>467</v>
-      </c>
-      <c r="V35" s="6"/>
+        <v>500</v>
+      </c>
+      <c r="O35" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="P35" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="Q35" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="R35" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="S35" s="10" t="s">
+        <v>503</v>
+      </c>
+      <c r="T35" s="9" t="s">
+        <v>504</v>
+      </c>
+      <c r="U35" s="10" t="s">
+        <v>505</v>
+      </c>
       <c r="W35" s="6"/>
       <c r="X35" s="6"/>
-      <c r="Y35" s="18"/>
-      <c r="Z35" s="19"/>
-      <c r="AA35" s="6"/>
-      <c r="AD35" s="11"/>
-      <c r="AE35" s="6"/>
+      <c r="Y35" s="6"/>
+      <c r="Z35" s="18"/>
+      <c r="AA35" s="6">
+        <v>34.0</v>
+      </c>
+      <c r="AB35" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="AC35" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="AE35" s="11"/>
+      <c r="AF35" s="6"/>
     </row>
     <row r="36">
       <c r="A36" s="7">
         <v>35.0</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>468</v>
+        <v>506</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>469</v>
+        <v>507</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>470</v>
+        <v>508</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>286</v>
+        <v>309</v>
       </c>
       <c r="K36" s="8" t="s">
-        <v>287</v>
+        <v>310</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>471</v>
+        <v>509</v>
       </c>
       <c r="M36" s="8" t="s">
-        <v>472</v>
+        <v>510</v>
       </c>
       <c r="N36" s="6" t="s">
-        <v>473</v>
-      </c>
-      <c r="O36" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="P36" s="8" t="s">
-        <v>355</v>
-      </c>
-      <c r="Q36" s="9" t="s">
-        <v>474</v>
-      </c>
-      <c r="R36" s="10" t="s">
-        <v>475</v>
-      </c>
-      <c r="S36" s="9" t="s">
-        <v>476</v>
-      </c>
-      <c r="T36" s="10" t="s">
-        <v>477</v>
-      </c>
-      <c r="V36" s="6"/>
+        <v>511</v>
+      </c>
+      <c r="O36" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="P36" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q36" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="R36" s="9" t="s">
+        <v>513</v>
+      </c>
+      <c r="S36" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="T36" s="9" t="s">
+        <v>515</v>
+      </c>
+      <c r="U36" s="10" t="s">
+        <v>516</v>
+      </c>
       <c r="W36" s="6"/>
       <c r="X36" s="6"/>
-      <c r="Y36" s="18"/>
-      <c r="Z36" s="19"/>
-      <c r="AA36" s="6"/>
-      <c r="AD36" s="11"/>
-      <c r="AE36" s="6"/>
+      <c r="Y36" s="6"/>
+      <c r="Z36" s="18"/>
+      <c r="AA36" s="6">
+        <v>35.0</v>
+      </c>
+      <c r="AB36" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="AC36" s="6" t="s">
+        <v>511</v>
+      </c>
+      <c r="AE36" s="11"/>
+      <c r="AF36" s="6"/>
     </row>
     <row r="37">
       <c r="A37" s="7">
         <v>36.0</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>478</v>
+        <v>517</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>479</v>
+        <v>518</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="I37" s="16" t="s">
-        <v>481</v>
+        <v>520</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>482</v>
+        <v>521</v>
       </c>
       <c r="K37" s="8" t="s">
-        <v>483</v>
+        <v>522</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>484</v>
+        <v>523</v>
       </c>
       <c r="M37" s="8" t="s">
-        <v>485</v>
+        <v>524</v>
       </c>
       <c r="N37" s="6" t="s">
-        <v>486</v>
-      </c>
-      <c r="O37" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="P37" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q37" s="9" t="s">
-        <v>487</v>
-      </c>
-      <c r="R37" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="S37" s="9" t="s">
-        <v>489</v>
-      </c>
-      <c r="T37" s="10" t="s">
-        <v>490</v>
-      </c>
-      <c r="V37" s="6"/>
+        <v>525</v>
+      </c>
+      <c r="O37" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="P37" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q37" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="R37" s="9" t="s">
+        <v>527</v>
+      </c>
+      <c r="S37" s="10" t="s">
+        <v>528</v>
+      </c>
+      <c r="T37" s="9" t="s">
+        <v>529</v>
+      </c>
+      <c r="U37" s="10" t="s">
+        <v>530</v>
+      </c>
       <c r="W37" s="6"/>
       <c r="X37" s="6"/>
-      <c r="Y37" s="18"/>
-      <c r="Z37" s="19"/>
-      <c r="AA37" s="6"/>
-      <c r="AD37" s="11"/>
-      <c r="AE37" s="6"/>
+      <c r="Y37" s="6"/>
+      <c r="Z37" s="18"/>
+      <c r="AA37" s="6">
+        <v>36.0</v>
+      </c>
+      <c r="AB37" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="AC37" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="AE37" s="11"/>
+      <c r="AF37" s="6"/>
     </row>
     <row r="38">
       <c r="A38" s="7">
         <v>37.0</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>491</v>
+        <v>531</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>492</v>
+        <v>532</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>493</v>
+        <v>533</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="I38" s="16" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>363</v>
+        <v>392</v>
       </c>
       <c r="K38" s="8" t="s">
-        <v>364</v>
+        <v>393</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>494</v>
+        <v>534</v>
       </c>
       <c r="M38" s="8" t="s">
-        <v>495</v>
+        <v>535</v>
       </c>
       <c r="N38" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="O38" s="3" t="s">
-        <v>496</v>
-      </c>
-      <c r="P38" s="8" t="s">
-        <v>497</v>
-      </c>
-      <c r="Q38" s="9" t="s">
-        <v>498</v>
-      </c>
-      <c r="R38" s="10" t="s">
-        <v>499</v>
-      </c>
-      <c r="S38" s="9" t="s">
-        <v>500</v>
-      </c>
-      <c r="T38" s="10" t="s">
-        <v>501</v>
-      </c>
-      <c r="V38" s="6"/>
+        <v>449</v>
+      </c>
+      <c r="O38" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="P38" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="Q38" s="8" t="s">
+        <v>537</v>
+      </c>
+      <c r="R38" s="9" t="s">
+        <v>538</v>
+      </c>
+      <c r="S38" s="10" t="s">
+        <v>539</v>
+      </c>
+      <c r="T38" s="9" t="s">
+        <v>540</v>
+      </c>
+      <c r="U38" s="10" t="s">
+        <v>541</v>
+      </c>
       <c r="W38" s="6"/>
       <c r="X38" s="6"/>
-      <c r="Y38" s="18"/>
-      <c r="Z38" s="19"/>
-      <c r="AA38" s="6"/>
-      <c r="AD38" s="11"/>
-      <c r="AE38" s="6"/>
+      <c r="Y38" s="6"/>
+      <c r="Z38" s="18"/>
+      <c r="AA38" s="6">
+        <v>37.0</v>
+      </c>
+      <c r="AB38" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="AC38" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="AE38" s="11"/>
+      <c r="AF38" s="6"/>
     </row>
     <row r="39">
       <c r="A39" s="7">
         <v>38.0</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>502</v>
+        <v>542</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>503</v>
+        <v>543</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>504</v>
+        <v>544</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I39" s="16" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>412</v>
+        <v>445</v>
       </c>
       <c r="K39" s="8" t="s">
-        <v>413</v>
+        <v>446</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>505</v>
+        <v>545</v>
       </c>
       <c r="M39" s="8" t="s">
-        <v>506</v>
+        <v>546</v>
       </c>
       <c r="N39" s="6" t="s">
-        <v>507</v>
-      </c>
-      <c r="O39" s="3" t="s">
-        <v>508</v>
-      </c>
-      <c r="P39" s="8" t="s">
-        <v>509</v>
-      </c>
-      <c r="Q39" s="9" t="s">
-        <v>510</v>
-      </c>
-      <c r="R39" s="10" t="s">
-        <v>511</v>
-      </c>
-      <c r="S39" s="9" t="s">
-        <v>512</v>
-      </c>
-      <c r="T39" s="10" t="s">
-        <v>513</v>
-      </c>
-      <c r="V39" s="6"/>
+        <v>547</v>
+      </c>
+      <c r="O39" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="P39" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="Q39" s="8" t="s">
+        <v>550</v>
+      </c>
+      <c r="R39" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="S39" s="10" t="s">
+        <v>552</v>
+      </c>
+      <c r="T39" s="9" t="s">
+        <v>553</v>
+      </c>
+      <c r="U39" s="10" t="s">
+        <v>554</v>
+      </c>
       <c r="W39" s="6"/>
       <c r="X39" s="6"/>
-      <c r="Y39" s="18"/>
-      <c r="Z39" s="19"/>
-      <c r="AA39" s="6"/>
-      <c r="AD39" s="11"/>
-      <c r="AE39" s="6"/>
+      <c r="Y39" s="6"/>
+      <c r="Z39" s="18"/>
+      <c r="AA39" s="6">
+        <v>38.0</v>
+      </c>
+      <c r="AB39" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="AC39" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="AE39" s="11"/>
+      <c r="AF39" s="6"/>
     </row>
     <row r="40">
       <c r="A40" s="7">
         <v>39.0</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>514</v>
+        <v>555</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>515</v>
+        <v>556</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>516</v>
+        <v>557</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>517</v>
+        <v>558</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>518</v>
+        <v>559</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="I40" s="16" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>427</v>
+        <v>461</v>
       </c>
       <c r="K40" s="8" t="s">
-        <v>428</v>
+        <v>462</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>519</v>
+        <v>560</v>
       </c>
       <c r="M40" s="8" t="s">
-        <v>520</v>
+        <v>561</v>
       </c>
       <c r="N40" s="6" t="s">
-        <v>521</v>
-      </c>
-      <c r="O40" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="P40" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q40" s="9" t="s">
-        <v>522</v>
-      </c>
-      <c r="R40" s="10" t="s">
-        <v>523</v>
-      </c>
-      <c r="S40" s="9" t="s">
-        <v>524</v>
-      </c>
-      <c r="T40" s="10" t="s">
-        <v>525</v>
-      </c>
-      <c r="V40" s="6"/>
+        <v>562</v>
+      </c>
+      <c r="O40" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="P40" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q40" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="R40" s="9" t="s">
+        <v>564</v>
+      </c>
+      <c r="S40" s="10" t="s">
+        <v>565</v>
+      </c>
+      <c r="T40" s="9" t="s">
+        <v>566</v>
+      </c>
+      <c r="U40" s="10" t="s">
+        <v>567</v>
+      </c>
       <c r="W40" s="6"/>
       <c r="X40" s="6"/>
-      <c r="Y40" s="18"/>
-      <c r="Z40" s="19"/>
-      <c r="AA40" s="6"/>
-      <c r="AD40" s="11"/>
-      <c r="AE40" s="6"/>
+      <c r="Y40" s="6"/>
+      <c r="Z40" s="18"/>
+      <c r="AA40" s="6">
+        <v>39.0</v>
+      </c>
+      <c r="AB40" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="AC40" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="AE40" s="11"/>
+      <c r="AF40" s="6"/>
     </row>
     <row r="41">
       <c r="A41" s="7">
         <v>40.0</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>526</v>
+        <v>568</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>527</v>
+        <v>569</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>528</v>
+        <v>570</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>517</v>
+        <v>558</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>518</v>
+        <v>559</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="I41" s="16" t="s">
-        <v>338</v>
+        <v>365</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>482</v>
+        <v>521</v>
       </c>
       <c r="K41" s="8" t="s">
-        <v>483</v>
+        <v>522</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>529</v>
+        <v>571</v>
       </c>
       <c r="M41" s="8" t="s">
-        <v>530</v>
+        <v>572</v>
       </c>
       <c r="N41" s="6" t="s">
-        <v>531</v>
-      </c>
-      <c r="O41" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="P41" s="8" t="s">
-        <v>533</v>
-      </c>
-      <c r="Q41" s="9" t="s">
-        <v>534</v>
-      </c>
-      <c r="R41" s="10" t="s">
-        <v>535</v>
-      </c>
-      <c r="S41" s="9" t="s">
-        <v>536</v>
-      </c>
-      <c r="T41" s="10" t="s">
-        <v>537</v>
-      </c>
-      <c r="V41" s="6"/>
+        <v>573</v>
+      </c>
+      <c r="O41" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="P41" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="Q41" s="8" t="s">
+        <v>576</v>
+      </c>
+      <c r="R41" s="9" t="s">
+        <v>577</v>
+      </c>
+      <c r="S41" s="10" t="s">
+        <v>578</v>
+      </c>
+      <c r="T41" s="9" t="s">
+        <v>579</v>
+      </c>
+      <c r="U41" s="10" t="s">
+        <v>580</v>
+      </c>
       <c r="W41" s="6"/>
       <c r="X41" s="6"/>
-      <c r="Y41" s="18"/>
-      <c r="Z41" s="19"/>
-      <c r="AA41" s="6"/>
-      <c r="AD41" s="11"/>
-      <c r="AE41" s="6"/>
+      <c r="Y41" s="6"/>
+      <c r="Z41" s="18"/>
+      <c r="AA41" s="6">
+        <v>40.0</v>
+      </c>
+      <c r="AB41" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="AC41" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="AE41" s="11"/>
+      <c r="AF41" s="6"/>
     </row>
     <row r="42">
       <c r="A42" s="7">
         <v>41.0</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>538</v>
+        <v>581</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>539</v>
+        <v>582</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>540</v>
+        <v>583</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>541</v>
+        <v>584</v>
       </c>
       <c r="K42" s="8" t="s">
-        <v>542</v>
+        <v>585</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>543</v>
-      </c>
-      <c r="M42" s="20" t="s">
-        <v>544</v>
+        <v>586</v>
+      </c>
+      <c r="M42" s="19" t="s">
+        <v>587</v>
       </c>
       <c r="N42" s="6" t="s">
-        <v>545</v>
-      </c>
-      <c r="O42" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="P42" s="8" t="s">
-        <v>418</v>
-      </c>
-      <c r="Q42" s="9" t="s">
-        <v>546</v>
-      </c>
-      <c r="R42" s="10" t="s">
-        <v>547</v>
-      </c>
-      <c r="S42" s="9" t="s">
-        <v>548</v>
-      </c>
-      <c r="T42" s="10" t="s">
-        <v>549</v>
-      </c>
-      <c r="V42" s="6"/>
+        <v>588</v>
+      </c>
+      <c r="O42" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="P42" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q42" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="R42" s="9" t="s">
+        <v>590</v>
+      </c>
+      <c r="S42" s="10" t="s">
+        <v>591</v>
+      </c>
+      <c r="T42" s="9" t="s">
+        <v>592</v>
+      </c>
+      <c r="U42" s="10" t="s">
+        <v>593</v>
+      </c>
       <c r="W42" s="6"/>
       <c r="X42" s="6"/>
-      <c r="Y42" s="18"/>
-      <c r="Z42" s="19"/>
-      <c r="AA42" s="6"/>
-      <c r="AD42" s="11"/>
-      <c r="AE42" s="6"/>
+      <c r="Y42" s="6"/>
+      <c r="Z42" s="18"/>
+      <c r="AA42" s="6">
+        <v>41.0</v>
+      </c>
+      <c r="AB42" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="AC42" s="6" t="s">
+        <v>588</v>
+      </c>
+      <c r="AE42" s="11"/>
+      <c r="AF42" s="6"/>
     </row>
     <row r="43">
       <c r="A43" s="7">
         <v>42.0</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>550</v>
+        <v>594</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>551</v>
+        <v>595</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>552</v>
+        <v>596</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>541</v>
+        <v>584</v>
       </c>
       <c r="K43" s="8" t="s">
-        <v>542</v>
+        <v>585</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>553</v>
+        <v>597</v>
       </c>
       <c r="M43" s="8" t="s">
-        <v>554</v>
-      </c>
-      <c r="N43" s="11" t="s">
-        <v>555</v>
-      </c>
-      <c r="O43" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="P43" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q43" s="9" t="s">
-        <v>556</v>
-      </c>
-      <c r="R43" s="10" t="s">
-        <v>557</v>
-      </c>
-      <c r="S43" s="9" t="s">
-        <v>558</v>
-      </c>
-      <c r="T43" s="10" t="s">
-        <v>559</v>
-      </c>
-      <c r="V43" s="6"/>
+        <v>598</v>
+      </c>
+      <c r="N43" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="O43" s="11" t="s">
+        <v>600</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q43" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="R43" s="9" t="s">
+        <v>601</v>
+      </c>
+      <c r="S43" s="10" t="s">
+        <v>602</v>
+      </c>
+      <c r="T43" s="9" t="s">
+        <v>603</v>
+      </c>
+      <c r="U43" s="10" t="s">
+        <v>604</v>
+      </c>
       <c r="W43" s="6"/>
       <c r="X43" s="6"/>
-      <c r="Y43" s="18"/>
-      <c r="Z43" s="19"/>
-      <c r="AA43" s="11"/>
-      <c r="AD43" s="11"/>
+      <c r="Y43" s="6"/>
+      <c r="Z43" s="18"/>
+      <c r="AA43" s="6">
+        <v>42.0</v>
+      </c>
+      <c r="AB43" s="6" t="s">
+        <v>600</v>
+      </c>
+      <c r="AC43" s="6" t="s">
+        <v>599</v>
+      </c>
       <c r="AE43" s="11"/>
+      <c r="AF43" s="11"/>
     </row>
     <row r="44">
       <c r="A44" s="7">
         <v>43.0</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>560</v>
+        <v>605</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>561</v>
+        <v>606</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>562</v>
+        <v>607</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>563</v>
+        <v>608</v>
       </c>
       <c r="K44" s="8" t="s">
-        <v>564</v>
+        <v>609</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>565</v>
+        <v>610</v>
       </c>
       <c r="M44" s="8" t="s">
-        <v>566</v>
+        <v>611</v>
       </c>
       <c r="N44" s="6" t="s">
-        <v>567</v>
-      </c>
-      <c r="O44" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="P44" s="8" t="s">
-        <v>569</v>
-      </c>
-      <c r="Q44" s="9" t="s">
-        <v>570</v>
-      </c>
-      <c r="R44" s="10" t="s">
-        <v>571</v>
-      </c>
-      <c r="S44" s="9" t="s">
-        <v>572</v>
-      </c>
-      <c r="T44" s="10" t="s">
-        <v>573</v>
-      </c>
-      <c r="V44" s="6"/>
+        <v>612</v>
+      </c>
+      <c r="O44" s="6" t="s">
+        <v>613</v>
+      </c>
+      <c r="P44" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="Q44" s="8" t="s">
+        <v>615</v>
+      </c>
+      <c r="R44" s="9" t="s">
+        <v>616</v>
+      </c>
+      <c r="S44" s="10" t="s">
+        <v>617</v>
+      </c>
+      <c r="T44" s="9" t="s">
+        <v>618</v>
+      </c>
+      <c r="U44" s="10" t="s">
+        <v>619</v>
+      </c>
       <c r="W44" s="6"/>
       <c r="X44" s="6"/>
-      <c r="Y44" s="18"/>
-      <c r="Z44" s="19"/>
-      <c r="AA44" s="6"/>
-      <c r="AD44" s="11"/>
-      <c r="AE44" s="6"/>
+      <c r="Y44" s="6"/>
+      <c r="Z44" s="18"/>
+      <c r="AA44" s="6">
+        <v>43.0</v>
+      </c>
+      <c r="AB44" s="6" t="s">
+        <v>613</v>
+      </c>
+      <c r="AC44" s="6" t="s">
+        <v>612</v>
+      </c>
+      <c r="AE44" s="11"/>
+      <c r="AF44" s="6"/>
     </row>
     <row r="45">
       <c r="A45" s="7">
         <v>44.0</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>574</v>
+        <v>620</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>575</v>
+        <v>621</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>576</v>
+        <v>622</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>563</v>
+        <v>608</v>
       </c>
       <c r="K45" s="8" t="s">
-        <v>564</v>
+        <v>609</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>577</v>
+        <v>623</v>
       </c>
       <c r="M45" s="8" t="s">
-        <v>578</v>
+        <v>624</v>
       </c>
       <c r="N45" s="6" t="s">
-        <v>579</v>
-      </c>
-      <c r="O45" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="P45" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q45" s="9" t="s">
-        <v>580</v>
-      </c>
-      <c r="R45" s="10" t="s">
-        <v>581</v>
-      </c>
-      <c r="S45" s="9" t="s">
-        <v>582</v>
-      </c>
-      <c r="T45" s="10" t="s">
-        <v>583</v>
-      </c>
-      <c r="V45" s="6"/>
+        <v>625</v>
+      </c>
+      <c r="O45" s="6" t="s">
+        <v>626</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q45" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="R45" s="9" t="s">
+        <v>627</v>
+      </c>
+      <c r="S45" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="T45" s="9" t="s">
+        <v>629</v>
+      </c>
+      <c r="U45" s="10" t="s">
+        <v>630</v>
+      </c>
       <c r="W45" s="6"/>
       <c r="X45" s="6"/>
-      <c r="Y45" s="18"/>
-      <c r="Z45" s="19"/>
-      <c r="AA45" s="6"/>
-      <c r="AD45" s="11"/>
-      <c r="AE45" s="6"/>
+      <c r="Y45" s="6"/>
+      <c r="Z45" s="18"/>
+      <c r="AA45" s="6">
+        <v>44.0</v>
+      </c>
+      <c r="AB45" s="6" t="s">
+        <v>626</v>
+      </c>
+      <c r="AC45" s="6" t="s">
+        <v>625</v>
+      </c>
+      <c r="AE45" s="11"/>
+      <c r="AF45" s="6"/>
     </row>
     <row r="46">
       <c r="A46" s="7">
         <v>45.0</v>
       </c>
       <c r="B46" s="8" t="s">
+        <v>631</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>633</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>635</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J46" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="K46" s="8" t="s">
         <v>585</v>
       </c>
-      <c r="D46" s="8" t="s">
-        <v>586</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>587</v>
-      </c>
-      <c r="F46" s="8" t="s">
-        <v>588</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>541</v>
-      </c>
-      <c r="K46" s="8" t="s">
-        <v>542</v>
-      </c>
       <c r="L46" s="3" t="s">
-        <v>589</v>
+        <v>636</v>
       </c>
       <c r="M46" s="8" t="s">
-        <v>590</v>
+        <v>637</v>
       </c>
       <c r="N46" s="6" t="s">
-        <v>591</v>
-      </c>
-      <c r="O46" s="3" t="s">
-        <v>592</v>
-      </c>
-      <c r="P46" s="8" t="s">
-        <v>593</v>
-      </c>
-      <c r="Q46" s="9" t="s">
-        <v>594</v>
-      </c>
-      <c r="R46" s="10" t="s">
-        <v>595</v>
-      </c>
-      <c r="S46" s="9" t="s">
-        <v>596</v>
-      </c>
-      <c r="T46" s="10" t="s">
-        <v>597</v>
-      </c>
-      <c r="V46" s="6"/>
+        <v>638</v>
+      </c>
+      <c r="O46" s="6" t="s">
+        <v>639</v>
+      </c>
+      <c r="P46" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="Q46" s="8" t="s">
+        <v>641</v>
+      </c>
+      <c r="R46" s="9" t="s">
+        <v>642</v>
+      </c>
+      <c r="S46" s="10" t="s">
+        <v>643</v>
+      </c>
+      <c r="T46" s="9" t="s">
+        <v>644</v>
+      </c>
+      <c r="U46" s="10" t="s">
+        <v>645</v>
+      </c>
       <c r="W46" s="6"/>
       <c r="X46" s="6"/>
-      <c r="Y46" s="18"/>
-      <c r="Z46" s="19"/>
-      <c r="AA46" s="6"/>
-      <c r="AD46" s="11"/>
-      <c r="AE46" s="6"/>
+      <c r="Y46" s="6"/>
+      <c r="Z46" s="18"/>
+      <c r="AA46" s="6">
+        <v>45.0</v>
+      </c>
+      <c r="AB46" s="6" t="s">
+        <v>639</v>
+      </c>
+      <c r="AC46" s="6" t="s">
+        <v>638</v>
+      </c>
+      <c r="AE46" s="11"/>
+      <c r="AF46" s="6"/>
     </row>
     <row r="47">
       <c r="A47" s="7">
         <v>46.0</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>598</v>
+        <v>646</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>599</v>
+        <v>647</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>600</v>
+        <v>648</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>601</v>
+        <v>649</v>
       </c>
       <c r="K47" s="8" t="s">
-        <v>602</v>
+        <v>650</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>603</v>
+        <v>651</v>
       </c>
       <c r="M47" s="8" t="s">
-        <v>604</v>
+        <v>652</v>
       </c>
       <c r="N47" s="6" t="s">
-        <v>605</v>
-      </c>
-      <c r="O47" s="3" t="s">
-        <v>606</v>
-      </c>
-      <c r="P47" s="8" t="s">
-        <v>607</v>
-      </c>
-      <c r="Q47" s="9" t="s">
-        <v>608</v>
-      </c>
-      <c r="R47" s="10" t="s">
-        <v>609</v>
-      </c>
-      <c r="S47" s="9" t="s">
-        <v>610</v>
-      </c>
-      <c r="T47" s="10" t="s">
-        <v>611</v>
-      </c>
-      <c r="V47" s="6"/>
+        <v>653</v>
+      </c>
+      <c r="O47" s="6" t="s">
+        <v>654</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="Q47" s="8" t="s">
+        <v>656</v>
+      </c>
+      <c r="R47" s="9" t="s">
+        <v>657</v>
+      </c>
+      <c r="S47" s="10" t="s">
+        <v>658</v>
+      </c>
+      <c r="T47" s="9" t="s">
+        <v>659</v>
+      </c>
+      <c r="U47" s="10" t="s">
+        <v>660</v>
+      </c>
       <c r="W47" s="6"/>
       <c r="X47" s="6"/>
-      <c r="Y47" s="18"/>
-      <c r="Z47" s="19"/>
-      <c r="AA47" s="6"/>
-      <c r="AD47" s="11"/>
-      <c r="AE47" s="6"/>
+      <c r="Y47" s="6"/>
+      <c r="Z47" s="18"/>
+      <c r="AA47" s="6">
+        <v>46.0</v>
+      </c>
+      <c r="AB47" s="6" t="s">
+        <v>654</v>
+      </c>
+      <c r="AC47" s="6" t="s">
+        <v>653</v>
+      </c>
+      <c r="AE47" s="11"/>
+      <c r="AF47" s="6"/>
     </row>
     <row r="48">
       <c r="A48" s="7">
         <v>47.0</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>612</v>
+        <v>661</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>613</v>
+        <v>662</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>614</v>
+        <v>663</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>314</v>
+        <v>339</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>612</v>
+        <v>661</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>286</v>
+        <v>309</v>
       </c>
       <c r="K48" s="8" t="s">
-        <v>287</v>
+        <v>310</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>615</v>
+        <v>664</v>
       </c>
       <c r="M48" s="8" t="s">
-        <v>616</v>
+        <v>665</v>
       </c>
       <c r="N48" s="6" t="s">
-        <v>617</v>
-      </c>
-      <c r="O48" s="3" t="s">
-        <v>618</v>
-      </c>
-      <c r="P48" s="8" t="s">
-        <v>619</v>
-      </c>
-      <c r="Q48" s="9" t="s">
-        <v>620</v>
-      </c>
-      <c r="R48" s="10" t="s">
-        <v>621</v>
-      </c>
-      <c r="S48" s="9" t="s">
-        <v>622</v>
-      </c>
-      <c r="T48" s="10" t="s">
-        <v>623</v>
-      </c>
-      <c r="V48" s="6"/>
+        <v>666</v>
+      </c>
+      <c r="O48" s="6" t="s">
+        <v>667</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="Q48" s="8" t="s">
+        <v>669</v>
+      </c>
+      <c r="R48" s="9" t="s">
+        <v>670</v>
+      </c>
+      <c r="S48" s="10" t="s">
+        <v>671</v>
+      </c>
+      <c r="T48" s="9" t="s">
+        <v>672</v>
+      </c>
+      <c r="U48" s="10" t="s">
+        <v>673</v>
+      </c>
       <c r="W48" s="6"/>
       <c r="X48" s="6"/>
-      <c r="Y48" s="18"/>
-      <c r="Z48" s="19"/>
-      <c r="AA48" s="6"/>
-      <c r="AD48" s="11"/>
-      <c r="AE48" s="6"/>
+      <c r="Y48" s="6"/>
+      <c r="Z48" s="18"/>
+      <c r="AA48" s="6">
+        <v>47.0</v>
+      </c>
+      <c r="AB48" s="6" t="s">
+        <v>667</v>
+      </c>
+      <c r="AC48" s="6" t="s">
+        <v>666</v>
+      </c>
+      <c r="AE48" s="11"/>
+      <c r="AF48" s="6"/>
     </row>
     <row r="49">
       <c r="A49" s="7">
         <v>48.0</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>624</v>
+        <v>674</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>625</v>
+        <v>675</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>626</v>
+        <v>676</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>627</v>
+        <v>677</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>628</v>
+        <v>678</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>338</v>
+        <v>365</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>629</v>
+        <v>679</v>
       </c>
       <c r="K49" s="8" t="s">
-        <v>630</v>
+        <v>680</v>
       </c>
       <c r="L49" s="3" t="s">
-        <v>631</v>
+        <v>681</v>
       </c>
       <c r="M49" s="8" t="s">
-        <v>632</v>
+        <v>682</v>
       </c>
       <c r="N49" s="6" t="s">
-        <v>633</v>
-      </c>
-      <c r="O49" s="3" t="s">
-        <v>634</v>
-      </c>
-      <c r="P49" s="8" t="s">
-        <v>635</v>
-      </c>
-      <c r="Q49" s="9" t="s">
-        <v>636</v>
-      </c>
-      <c r="R49" s="10" t="s">
-        <v>637</v>
-      </c>
-      <c r="S49" s="9" t="s">
-        <v>638</v>
-      </c>
-      <c r="T49" s="10" t="s">
-        <v>639</v>
-      </c>
-      <c r="V49" s="6"/>
+        <v>683</v>
+      </c>
+      <c r="O49" s="6" t="s">
+        <v>684</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>685</v>
+      </c>
+      <c r="Q49" s="8" t="s">
+        <v>686</v>
+      </c>
+      <c r="R49" s="9" t="s">
+        <v>687</v>
+      </c>
+      <c r="S49" s="10" t="s">
+        <v>688</v>
+      </c>
+      <c r="T49" s="9" t="s">
+        <v>689</v>
+      </c>
+      <c r="U49" s="10" t="s">
+        <v>690</v>
+      </c>
       <c r="W49" s="6"/>
       <c r="X49" s="6"/>
-      <c r="Y49" s="18"/>
-      <c r="Z49" s="19"/>
-      <c r="AA49" s="6"/>
-      <c r="AD49" s="11"/>
-      <c r="AE49" s="6"/>
+      <c r="Y49" s="6"/>
+      <c r="Z49" s="18"/>
+      <c r="AA49" s="6">
+        <v>48.0</v>
+      </c>
+      <c r="AB49" s="6" t="s">
+        <v>684</v>
+      </c>
+      <c r="AC49" s="6" t="s">
+        <v>683</v>
+      </c>
+      <c r="AE49" s="11"/>
+      <c r="AF49" s="6"/>
     </row>
     <row r="50">
-      <c r="A50" s="21">
+      <c r="A50" s="20">
         <v>49.0</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>640</v>
+        <v>691</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>641</v>
-      </c>
-      <c r="D50" s="21" t="s">
-        <v>642</v>
+        <v>692</v>
+      </c>
+      <c r="D50" s="20" t="s">
+        <v>693</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>641</v>
-      </c>
-      <c r="F50" s="21" t="s">
-        <v>24</v>
+        <v>692</v>
+      </c>
+      <c r="F50" s="20" t="s">
+        <v>28</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H50" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="I50" s="21" t="s">
-        <v>57</v>
+        <v>27</v>
+      </c>
+      <c r="H50" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I50" s="20" t="s">
+        <v>63</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="K50" s="21" t="s">
-        <v>376</v>
+        <v>405</v>
+      </c>
+      <c r="K50" s="20" t="s">
+        <v>406</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>643</v>
-      </c>
-      <c r="M50" s="22" t="s">
-        <v>644</v>
+        <v>694</v>
+      </c>
+      <c r="M50" s="21" t="s">
+        <v>695</v>
       </c>
       <c r="N50" s="6" t="s">
-        <v>645</v>
-      </c>
-      <c r="O50" s="3" t="s">
-        <v>646</v>
-      </c>
-      <c r="P50" s="21" t="s">
-        <v>647</v>
-      </c>
-      <c r="Q50" s="9" t="s">
-        <v>648</v>
-      </c>
-      <c r="R50" s="10" t="s">
-        <v>649</v>
-      </c>
-      <c r="S50" s="9" t="s">
-        <v>650</v>
-      </c>
-      <c r="T50" s="10" t="s">
-        <v>651</v>
-      </c>
-      <c r="Y50" s="18"/>
-      <c r="Z50" s="19"/>
-      <c r="AD50" s="11"/>
-      <c r="AE50" s="6"/>
+        <v>696</v>
+      </c>
+      <c r="O50" s="6" t="s">
+        <v>697</v>
+      </c>
+      <c r="P50" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="Q50" s="20" t="s">
+        <v>699</v>
+      </c>
+      <c r="R50" s="9" t="s">
+        <v>700</v>
+      </c>
+      <c r="S50" s="10" t="s">
+        <v>701</v>
+      </c>
+      <c r="T50" s="9" t="s">
+        <v>702</v>
+      </c>
+      <c r="U50" s="10" t="s">
+        <v>703</v>
+      </c>
+      <c r="Z50" s="18"/>
+      <c r="AA50" s="6">
+        <v>49.0</v>
+      </c>
+      <c r="AB50" s="6" t="s">
+        <v>697</v>
+      </c>
+      <c r="AC50" s="6" t="s">
+        <v>696</v>
+      </c>
+      <c r="AE50" s="11"/>
+      <c r="AF50" s="6"/>
     </row>
     <row r="51">
-      <c r="A51" s="21">
+      <c r="A51" s="20">
         <v>50.0</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>652</v>
+        <v>704</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>653</v>
-      </c>
-      <c r="D51" s="21" t="s">
-        <v>654</v>
+        <v>705</v>
+      </c>
+      <c r="D51" s="20" t="s">
+        <v>706</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F51" s="21" t="s">
-        <v>24</v>
+        <v>27</v>
+      </c>
+      <c r="F51" s="20" t="s">
+        <v>28</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H51" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="I51" s="21" t="s">
-        <v>57</v>
+        <v>27</v>
+      </c>
+      <c r="H51" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I51" s="20" t="s">
+        <v>63</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="K51" s="21" t="s">
-        <v>287</v>
+        <v>309</v>
+      </c>
+      <c r="K51" s="20" t="s">
+        <v>310</v>
       </c>
       <c r="L51" s="3" t="s">
-        <v>655</v>
-      </c>
-      <c r="M51" s="23" t="s">
-        <v>656</v>
+        <v>707</v>
+      </c>
+      <c r="M51" s="22" t="s">
+        <v>708</v>
       </c>
       <c r="N51" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="O51" s="3" t="s">
-        <v>646</v>
-      </c>
-      <c r="P51" s="21" t="s">
-        <v>647</v>
-      </c>
-      <c r="Q51" s="9" t="s">
-        <v>657</v>
-      </c>
-      <c r="R51" s="10" t="s">
-        <v>658</v>
-      </c>
-      <c r="S51" s="9" t="s">
-        <v>659</v>
-      </c>
-      <c r="T51" s="10" t="s">
-        <v>660</v>
-      </c>
-      <c r="Y51" s="18"/>
-      <c r="Z51" s="19"/>
-      <c r="AD51" s="11"/>
-      <c r="AE51" s="6"/>
+        <v>313</v>
+      </c>
+      <c r="O51" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="P51" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="Q51" s="20" t="s">
+        <v>699</v>
+      </c>
+      <c r="R51" s="9" t="s">
+        <v>709</v>
+      </c>
+      <c r="S51" s="10" t="s">
+        <v>710</v>
+      </c>
+      <c r="T51" s="9" t="s">
+        <v>711</v>
+      </c>
+      <c r="U51" s="10" t="s">
+        <v>712</v>
+      </c>
+      <c r="Z51" s="18"/>
+      <c r="AA51" s="6">
+        <v>50.0</v>
+      </c>
+      <c r="AB51" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="AC51" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="AE51" s="11"/>
+      <c r="AF51" s="6"/>
     </row>
     <row r="52">
-      <c r="Y52" s="18"/>
-      <c r="Z52" s="19"/>
+      <c r="Z52" s="18"/>
+      <c r="AA52" s="23"/>
+      <c r="AB52" s="24"/>
     </row>
     <row r="53">
       <c r="D53" s="6"/>
@@ -7804,8 +8474,9 @@
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
-      <c r="Y53" s="18"/>
-      <c r="Z53" s="19"/>
+      <c r="Z53" s="18"/>
+      <c r="AA53" s="23"/>
+      <c r="AB53" s="11"/>
     </row>
     <row r="54">
       <c r="D54" s="11"/>
@@ -7813,8 +8484,9 @@
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
-      <c r="Y54" s="18"/>
-      <c r="Z54" s="19"/>
+      <c r="Z54" s="18"/>
+      <c r="AA54" s="23"/>
+      <c r="AB54" s="24"/>
     </row>
     <row r="55">
       <c r="D55" s="11"/>
@@ -7822,466 +8494,531 @@
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
-      <c r="Y55" s="18"/>
-      <c r="Z55" s="19"/>
+      <c r="Z55" s="18"/>
+      <c r="AA55" s="23"/>
+      <c r="AB55" s="11"/>
     </row>
     <row r="56">
-      <c r="Y56" s="18"/>
-      <c r="Z56" s="19"/>
+      <c r="Z56" s="18"/>
+      <c r="AA56" s="23"/>
+      <c r="AB56" s="24"/>
     </row>
     <row r="57">
-      <c r="Y57" s="18"/>
-      <c r="Z57" s="19"/>
+      <c r="Z57" s="18"/>
+      <c r="AA57" s="23"/>
+      <c r="AB57" s="11"/>
     </row>
     <row r="58">
-      <c r="Y58" s="18"/>
-      <c r="Z58" s="19"/>
+      <c r="Z58" s="18"/>
+      <c r="AA58" s="23"/>
+      <c r="AB58" s="24"/>
     </row>
     <row r="59">
-      <c r="M59" s="22"/>
-      <c r="Y59" s="18"/>
-      <c r="Z59" s="19"/>
+      <c r="M59" s="21"/>
+      <c r="Z59" s="18"/>
+      <c r="AA59" s="23"/>
+      <c r="AB59" s="11"/>
     </row>
     <row r="60">
-      <c r="M60" s="23"/>
+      <c r="M60" s="22"/>
+      <c r="AB60" s="24"/>
     </row>
     <row r="61">
-      <c r="M61" s="24"/>
+      <c r="M61" s="25"/>
+      <c r="AB61" s="11"/>
     </row>
     <row r="62">
-      <c r="M62" s="23"/>
+      <c r="M62" s="22"/>
+      <c r="AB62" s="24"/>
+    </row>
+    <row r="63">
+      <c r="AB63" s="11"/>
+    </row>
+    <row r="64">
+      <c r="AB64" s="24"/>
+    </row>
+    <row r="65">
+      <c r="AB65" s="11"/>
     </row>
     <row r="66">
-      <c r="Y66" s="6"/>
+      <c r="Z66" s="6"/>
+      <c r="AB66" s="24"/>
     </row>
     <row r="67">
-      <c r="Y67" s="25"/>
+      <c r="Z67" s="26"/>
+      <c r="AB67" s="11"/>
     </row>
     <row r="68">
-      <c r="Y68" s="6"/>
+      <c r="Z68" s="6"/>
+      <c r="AB68" s="24"/>
     </row>
     <row r="69">
-      <c r="Y69" s="25"/>
+      <c r="Z69" s="26"/>
+      <c r="AB69" s="11"/>
     </row>
     <row r="70">
-      <c r="Y70" s="6"/>
+      <c r="Z70" s="6"/>
+      <c r="AB70" s="24"/>
     </row>
     <row r="71">
-      <c r="Y71" s="25"/>
+      <c r="Z71" s="26"/>
+      <c r="AB71" s="11"/>
     </row>
     <row r="72">
-      <c r="Y72" s="26"/>
+      <c r="Z72" s="27"/>
+      <c r="AB72" s="24"/>
     </row>
     <row r="73">
-      <c r="Y73" s="14"/>
+      <c r="Z73" s="14"/>
+      <c r="AB73" s="11"/>
     </row>
     <row r="74">
-      <c r="Y74" s="18"/>
       <c r="Z74" s="18"/>
+      <c r="AA74" s="18"/>
+      <c r="AB74" s="24"/>
     </row>
     <row r="75">
-      <c r="Y75" s="18"/>
-      <c r="Z75" s="19"/>
+      <c r="Z75" s="18"/>
+      <c r="AA75" s="23"/>
+      <c r="AB75" s="11"/>
     </row>
     <row r="76">
-      <c r="Y76" s="18"/>
-      <c r="Z76" s="19"/>
+      <c r="Z76" s="18"/>
+      <c r="AA76" s="23"/>
+      <c r="AB76" s="24"/>
     </row>
     <row r="77">
-      <c r="Y77" s="18"/>
-      <c r="Z77" s="19"/>
+      <c r="Z77" s="18"/>
+      <c r="AA77" s="23"/>
+      <c r="AB77" s="11"/>
     </row>
     <row r="78">
-      <c r="Y78" s="18"/>
-      <c r="Z78" s="19"/>
+      <c r="Z78" s="18"/>
+      <c r="AA78" s="23"/>
+      <c r="AB78" s="24"/>
     </row>
     <row r="79">
-      <c r="Y79" s="18"/>
-      <c r="Z79" s="19"/>
+      <c r="Z79" s="18"/>
+      <c r="AA79" s="23"/>
+      <c r="AB79" s="11"/>
     </row>
     <row r="80">
-      <c r="Y80" s="18"/>
-      <c r="Z80" s="19"/>
+      <c r="Z80" s="18"/>
+      <c r="AA80" s="23"/>
+      <c r="AB80" s="24"/>
     </row>
     <row r="81">
-      <c r="Y81" s="18"/>
-      <c r="Z81" s="19"/>
+      <c r="Z81" s="18"/>
+      <c r="AA81" s="23"/>
+      <c r="AB81" s="11"/>
     </row>
     <row r="82">
-      <c r="Y82" s="18"/>
-      <c r="Z82" s="19"/>
+      <c r="Z82" s="18"/>
+      <c r="AA82" s="23"/>
+      <c r="AB82" s="24"/>
     </row>
     <row r="83">
-      <c r="Y83" s="18"/>
-      <c r="Z83" s="19"/>
+      <c r="Z83" s="18"/>
+      <c r="AA83" s="23"/>
+      <c r="AB83" s="11"/>
     </row>
     <row r="84">
-      <c r="Y84" s="18"/>
-      <c r="Z84" s="19"/>
+      <c r="Z84" s="18"/>
+      <c r="AA84" s="23"/>
+      <c r="AB84" s="24"/>
     </row>
     <row r="85">
-      <c r="Y85" s="18"/>
-      <c r="Z85" s="19"/>
+      <c r="Z85" s="18"/>
+      <c r="AA85" s="23"/>
+      <c r="AB85" s="11"/>
     </row>
     <row r="86">
-      <c r="Y86" s="18"/>
-      <c r="Z86" s="19"/>
+      <c r="Z86" s="18"/>
+      <c r="AA86" s="23"/>
+      <c r="AB86" s="24"/>
     </row>
     <row r="87">
-      <c r="Y87" s="18"/>
-      <c r="Z87" s="19"/>
+      <c r="Z87" s="18"/>
+      <c r="AA87" s="23"/>
+      <c r="AB87" s="11"/>
     </row>
     <row r="88">
-      <c r="Y88" s="18"/>
-      <c r="Z88" s="19"/>
+      <c r="Z88" s="18"/>
+      <c r="AA88" s="23"/>
+      <c r="AB88" s="24"/>
     </row>
     <row r="89">
-      <c r="Y89" s="18"/>
-      <c r="Z89" s="19"/>
+      <c r="Z89" s="18"/>
+      <c r="AA89" s="23"/>
+      <c r="AB89" s="11"/>
     </row>
     <row r="90">
-      <c r="Y90" s="18"/>
-      <c r="Z90" s="19"/>
+      <c r="Z90" s="18"/>
+      <c r="AA90" s="23"/>
+      <c r="AB90" s="24"/>
     </row>
     <row r="91">
-      <c r="Y91" s="18"/>
-      <c r="Z91" s="19"/>
+      <c r="Z91" s="18"/>
+      <c r="AA91" s="23"/>
+      <c r="AB91" s="11"/>
     </row>
     <row r="92">
-      <c r="Y92" s="18"/>
-      <c r="Z92" s="19"/>
+      <c r="Z92" s="18"/>
+      <c r="AA92" s="23"/>
+      <c r="AB92" s="24"/>
     </row>
     <row r="93">
-      <c r="Y93" s="18"/>
-      <c r="Z93" s="19"/>
+      <c r="Z93" s="18"/>
+      <c r="AA93" s="23"/>
+      <c r="AB93" s="11"/>
     </row>
     <row r="94">
-      <c r="Y94" s="18"/>
-      <c r="Z94" s="19"/>
+      <c r="Z94" s="18"/>
+      <c r="AA94" s="23"/>
+      <c r="AB94" s="24"/>
     </row>
     <row r="95">
-      <c r="Y95" s="18"/>
-      <c r="Z95" s="19"/>
+      <c r="Z95" s="18"/>
+      <c r="AA95" s="23"/>
+      <c r="AB95" s="11"/>
     </row>
     <row r="96">
-      <c r="Y96" s="18"/>
-      <c r="Z96" s="19"/>
+      <c r="Z96" s="18"/>
+      <c r="AA96" s="23"/>
+      <c r="AB96" s="24"/>
     </row>
     <row r="97">
-      <c r="Y97" s="18"/>
-      <c r="Z97" s="19"/>
+      <c r="Z97" s="18"/>
+      <c r="AA97" s="23"/>
+      <c r="AB97" s="11"/>
     </row>
     <row r="98">
-      <c r="Y98" s="18"/>
-      <c r="Z98" s="19"/>
+      <c r="Z98" s="18"/>
+      <c r="AA98" s="23"/>
+      <c r="AB98" s="24"/>
     </row>
     <row r="99">
-      <c r="Y99" s="18"/>
-      <c r="Z99" s="19"/>
+      <c r="Z99" s="18"/>
+      <c r="AA99" s="23"/>
+      <c r="AB99" s="11"/>
     </row>
     <row r="100">
-      <c r="Y100" s="18"/>
-      <c r="Z100" s="19"/>
+      <c r="Z100" s="18"/>
+      <c r="AA100" s="23"/>
+      <c r="AB100" s="24"/>
     </row>
     <row r="101">
-      <c r="Y101" s="18"/>
-      <c r="Z101" s="19"/>
+      <c r="Z101" s="18"/>
+      <c r="AA101" s="23"/>
+      <c r="AB101" s="11"/>
     </row>
     <row r="102">
-      <c r="Y102" s="18"/>
-      <c r="Z102" s="19"/>
+      <c r="Z102" s="18"/>
+      <c r="AA102" s="23"/>
+      <c r="AB102" s="24"/>
     </row>
     <row r="103">
-      <c r="Y103" s="18"/>
-      <c r="Z103" s="19"/>
+      <c r="Z103" s="18"/>
+      <c r="AA103" s="23"/>
+      <c r="AB103" s="11"/>
     </row>
     <row r="104">
-      <c r="Y104" s="18"/>
-      <c r="Z104" s="19"/>
+      <c r="Z104" s="18"/>
+      <c r="AA104" s="23"/>
+      <c r="AB104" s="24"/>
     </row>
     <row r="105">
-      <c r="Y105" s="18"/>
-      <c r="Z105" s="19"/>
+      <c r="Z105" s="18"/>
+      <c r="AA105" s="23"/>
+      <c r="AB105" s="13"/>
     </row>
     <row r="106">
-      <c r="Y106" s="18"/>
-      <c r="Z106" s="19"/>
+      <c r="Z106" s="18"/>
+      <c r="AA106" s="23"/>
+      <c r="AB106" s="24"/>
     </row>
     <row r="107">
-      <c r="Y107" s="18"/>
-      <c r="Z107" s="19"/>
+      <c r="Z107" s="18"/>
+      <c r="AA107" s="23"/>
+      <c r="AB107" s="13"/>
     </row>
     <row r="108">
-      <c r="Y108" s="18"/>
-      <c r="Z108" s="19"/>
+      <c r="Z108" s="18"/>
+      <c r="AA108" s="23"/>
+      <c r="AB108" s="24"/>
     </row>
     <row r="109">
-      <c r="Y109" s="18"/>
-      <c r="Z109" s="19"/>
+      <c r="Z109" s="18"/>
+      <c r="AA109" s="23"/>
+      <c r="AB109" s="13"/>
     </row>
     <row r="110">
-      <c r="Y110" s="18"/>
-      <c r="Z110" s="19"/>
+      <c r="Z110" s="18"/>
+      <c r="AA110" s="23"/>
+      <c r="AB110" s="24"/>
     </row>
     <row r="111">
-      <c r="Y111" s="18"/>
-      <c r="Z111" s="19"/>
+      <c r="Z111" s="18"/>
+      <c r="AA111" s="23"/>
+      <c r="AB111" s="13"/>
     </row>
     <row r="112">
-      <c r="Y112" s="18"/>
-      <c r="Z112" s="19"/>
+      <c r="Z112" s="18"/>
+      <c r="AA112" s="23"/>
+      <c r="AB112" s="24"/>
     </row>
     <row r="113">
-      <c r="Y113" s="18"/>
-      <c r="Z113" s="19"/>
+      <c r="Z113" s="18"/>
+      <c r="AA113" s="23"/>
+      <c r="AB113" s="11"/>
     </row>
     <row r="114">
-      <c r="Y114" s="18"/>
-      <c r="Z114" s="19"/>
+      <c r="Z114" s="18"/>
+      <c r="AA114" s="23"/>
     </row>
     <row r="115">
-      <c r="Y115" s="18"/>
-      <c r="Z115" s="19"/>
+      <c r="Z115" s="18"/>
+      <c r="AA115" s="23"/>
     </row>
     <row r="116">
-      <c r="Y116" s="18"/>
-      <c r="Z116" s="19"/>
+      <c r="Z116" s="18"/>
+      <c r="AA116" s="23"/>
     </row>
     <row r="117">
-      <c r="Y117" s="18"/>
-      <c r="Z117" s="19"/>
+      <c r="Z117" s="18"/>
+      <c r="AA117" s="23"/>
     </row>
     <row r="118">
-      <c r="Y118" s="18"/>
-      <c r="Z118" s="19"/>
+      <c r="Z118" s="18"/>
+      <c r="AA118" s="23"/>
     </row>
     <row r="119">
-      <c r="Y119" s="18"/>
-      <c r="Z119" s="19"/>
+      <c r="Z119" s="18"/>
+      <c r="AA119" s="23"/>
     </row>
     <row r="120">
-      <c r="Y120" s="18"/>
-      <c r="Z120" s="19"/>
+      <c r="Z120" s="18"/>
+      <c r="AA120" s="23"/>
     </row>
     <row r="121">
-      <c r="Y121" s="18"/>
-      <c r="Z121" s="19"/>
+      <c r="Z121" s="18"/>
+      <c r="AA121" s="23"/>
     </row>
     <row r="122">
-      <c r="Y122" s="18"/>
-      <c r="Z122" s="19"/>
+      <c r="Z122" s="18"/>
+      <c r="AA122" s="23"/>
     </row>
     <row r="123">
-      <c r="Y123" s="18"/>
-      <c r="Z123" s="19"/>
+      <c r="Z123" s="18"/>
+      <c r="AA123" s="23"/>
     </row>
     <row r="124">
-      <c r="Y124" s="18"/>
-      <c r="Z124" s="19"/>
+      <c r="Z124" s="18"/>
+      <c r="AA124" s="23"/>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$T$51"/>
+  <autoFilter ref="$A$1:$U$51"/>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="Q2"/>
-    <hyperlink r:id="rId2" ref="R2"/>
-    <hyperlink r:id="rId3" ref="S2"/>
-    <hyperlink r:id="rId4" ref="T2"/>
-    <hyperlink r:id="rId5" ref="Q3"/>
-    <hyperlink r:id="rId6" ref="R3"/>
-    <hyperlink r:id="rId7" ref="S3"/>
-    <hyperlink r:id="rId8" ref="T3"/>
-    <hyperlink r:id="rId9" ref="Q4"/>
-    <hyperlink r:id="rId10" ref="R4"/>
-    <hyperlink r:id="rId11" ref="S4"/>
-    <hyperlink r:id="rId12" ref="T4"/>
-    <hyperlink r:id="rId13" ref="Q5"/>
-    <hyperlink r:id="rId14" ref="R5"/>
-    <hyperlink r:id="rId15" ref="S5"/>
-    <hyperlink r:id="rId16" ref="T5"/>
-    <hyperlink r:id="rId17" ref="Q6"/>
-    <hyperlink r:id="rId18" ref="R6"/>
-    <hyperlink r:id="rId19" ref="S6"/>
-    <hyperlink r:id="rId20" ref="T6"/>
-    <hyperlink r:id="rId21" ref="Q7"/>
-    <hyperlink r:id="rId22" ref="R7"/>
-    <hyperlink r:id="rId23" ref="S7"/>
-    <hyperlink r:id="rId24" ref="T7"/>
-    <hyperlink r:id="rId25" ref="Q8"/>
-    <hyperlink r:id="rId26" ref="R8"/>
-    <hyperlink r:id="rId27" ref="S8"/>
-    <hyperlink r:id="rId28" ref="T8"/>
-    <hyperlink r:id="rId29" ref="Q9"/>
-    <hyperlink r:id="rId30" ref="R9"/>
-    <hyperlink r:id="rId31" ref="S9"/>
-    <hyperlink r:id="rId32" ref="T9"/>
-    <hyperlink r:id="rId33" ref="Q10"/>
-    <hyperlink r:id="rId34" ref="R10"/>
-    <hyperlink r:id="rId35" ref="S10"/>
-    <hyperlink r:id="rId36" ref="T10"/>
-    <hyperlink r:id="rId37" ref="Q11"/>
-    <hyperlink r:id="rId38" ref="R11"/>
-    <hyperlink r:id="rId39" ref="S11"/>
-    <hyperlink r:id="rId40" ref="T11"/>
-    <hyperlink r:id="rId41" ref="Q12"/>
-    <hyperlink r:id="rId42" ref="R12"/>
-    <hyperlink r:id="rId43" ref="S12"/>
-    <hyperlink r:id="rId44" ref="T12"/>
-    <hyperlink r:id="rId45" ref="Q13"/>
-    <hyperlink r:id="rId46" ref="R13"/>
-    <hyperlink r:id="rId47" ref="S13"/>
-    <hyperlink r:id="rId48" ref="T13"/>
-    <hyperlink r:id="rId49" ref="Q14"/>
-    <hyperlink r:id="rId50" ref="R14"/>
-    <hyperlink r:id="rId51" ref="S14"/>
-    <hyperlink r:id="rId52" ref="T14"/>
-    <hyperlink r:id="rId53" ref="Q15"/>
-    <hyperlink r:id="rId54" ref="R15"/>
-    <hyperlink r:id="rId55" ref="S15"/>
-    <hyperlink r:id="rId56" ref="T15"/>
-    <hyperlink r:id="rId57" ref="Q16"/>
-    <hyperlink r:id="rId58" ref="R16"/>
-    <hyperlink r:id="rId59" ref="S16"/>
-    <hyperlink r:id="rId60" ref="T16"/>
-    <hyperlink r:id="rId61" ref="Q17"/>
-    <hyperlink r:id="rId62" ref="R17"/>
-    <hyperlink r:id="rId63" ref="S17"/>
-    <hyperlink r:id="rId64" ref="T17"/>
-    <hyperlink r:id="rId65" ref="Q18"/>
-    <hyperlink r:id="rId66" ref="R18"/>
-    <hyperlink r:id="rId67" ref="S18"/>
-    <hyperlink r:id="rId68" ref="T18"/>
-    <hyperlink r:id="rId69" ref="Q19"/>
-    <hyperlink r:id="rId70" ref="R19"/>
-    <hyperlink r:id="rId71" ref="S19"/>
-    <hyperlink r:id="rId72" ref="T19"/>
-    <hyperlink r:id="rId73" ref="Q20"/>
-    <hyperlink r:id="rId74" ref="R20"/>
-    <hyperlink r:id="rId75" ref="S20"/>
-    <hyperlink r:id="rId76" ref="T20"/>
-    <hyperlink r:id="rId77" ref="Q21"/>
-    <hyperlink r:id="rId78" ref="R21"/>
-    <hyperlink r:id="rId79" ref="S21"/>
-    <hyperlink r:id="rId80" ref="T21"/>
-    <hyperlink r:id="rId81" ref="Q22"/>
-    <hyperlink r:id="rId82" ref="R22"/>
-    <hyperlink r:id="rId83" ref="S22"/>
-    <hyperlink r:id="rId84" ref="T22"/>
-    <hyperlink r:id="rId85" ref="Q23"/>
-    <hyperlink r:id="rId86" ref="R23"/>
-    <hyperlink r:id="rId87" ref="S23"/>
-    <hyperlink r:id="rId88" ref="T23"/>
-    <hyperlink r:id="rId89" ref="Q24"/>
-    <hyperlink r:id="rId90" ref="R24"/>
-    <hyperlink r:id="rId91" ref="S24"/>
-    <hyperlink r:id="rId92" ref="T24"/>
-    <hyperlink r:id="rId93" ref="Q25"/>
-    <hyperlink r:id="rId94" ref="R25"/>
-    <hyperlink r:id="rId95" ref="S25"/>
-    <hyperlink r:id="rId96" ref="T25"/>
-    <hyperlink r:id="rId97" ref="Q26"/>
-    <hyperlink r:id="rId98" ref="R26"/>
-    <hyperlink r:id="rId99" ref="S26"/>
-    <hyperlink r:id="rId100" ref="T26"/>
-    <hyperlink r:id="rId101" ref="Q27"/>
-    <hyperlink r:id="rId102" ref="R27"/>
-    <hyperlink r:id="rId103" ref="S27"/>
-    <hyperlink r:id="rId104" ref="T27"/>
-    <hyperlink r:id="rId105" ref="Q28"/>
-    <hyperlink r:id="rId106" ref="R28"/>
-    <hyperlink r:id="rId107" ref="S28"/>
-    <hyperlink r:id="rId108" ref="T28"/>
-    <hyperlink r:id="rId109" ref="Q29"/>
-    <hyperlink r:id="rId110" ref="R29"/>
-    <hyperlink r:id="rId111" ref="S29"/>
-    <hyperlink r:id="rId112" ref="T29"/>
-    <hyperlink r:id="rId113" ref="Q30"/>
-    <hyperlink r:id="rId114" ref="R30"/>
-    <hyperlink r:id="rId115" ref="S30"/>
-    <hyperlink r:id="rId116" ref="T30"/>
-    <hyperlink r:id="rId117" ref="Q31"/>
-    <hyperlink r:id="rId118" ref="R31"/>
-    <hyperlink r:id="rId119" ref="S31"/>
-    <hyperlink r:id="rId120" ref="T31"/>
-    <hyperlink r:id="rId121" ref="Q32"/>
-    <hyperlink r:id="rId122" ref="R32"/>
-    <hyperlink r:id="rId123" ref="S32"/>
-    <hyperlink r:id="rId124" ref="T32"/>
-    <hyperlink r:id="rId125" ref="Q33"/>
-    <hyperlink r:id="rId126" ref="R33"/>
-    <hyperlink r:id="rId127" ref="S33"/>
-    <hyperlink r:id="rId128" ref="T33"/>
-    <hyperlink r:id="rId129" ref="Q34"/>
-    <hyperlink r:id="rId130" ref="R34"/>
-    <hyperlink r:id="rId131" ref="S34"/>
-    <hyperlink r:id="rId132" ref="T34"/>
-    <hyperlink r:id="rId133" ref="Q35"/>
-    <hyperlink r:id="rId134" ref="R35"/>
-    <hyperlink r:id="rId135" ref="S35"/>
-    <hyperlink r:id="rId136" ref="T35"/>
-    <hyperlink r:id="rId137" ref="Q36"/>
-    <hyperlink r:id="rId138" ref="R36"/>
-    <hyperlink r:id="rId139" ref="S36"/>
-    <hyperlink r:id="rId140" ref="T36"/>
-    <hyperlink r:id="rId141" ref="Q37"/>
-    <hyperlink r:id="rId142" ref="R37"/>
-    <hyperlink r:id="rId143" ref="S37"/>
-    <hyperlink r:id="rId144" ref="T37"/>
-    <hyperlink r:id="rId145" ref="Q38"/>
-    <hyperlink r:id="rId146" ref="R38"/>
-    <hyperlink r:id="rId147" ref="S38"/>
-    <hyperlink r:id="rId148" ref="T38"/>
-    <hyperlink r:id="rId149" ref="Q39"/>
-    <hyperlink r:id="rId150" ref="R39"/>
-    <hyperlink r:id="rId151" ref="S39"/>
-    <hyperlink r:id="rId152" ref="T39"/>
-    <hyperlink r:id="rId153" ref="Q40"/>
-    <hyperlink r:id="rId154" ref="R40"/>
-    <hyperlink r:id="rId155" ref="S40"/>
-    <hyperlink r:id="rId156" ref="T40"/>
-    <hyperlink r:id="rId157" ref="Q41"/>
-    <hyperlink r:id="rId158" ref="R41"/>
-    <hyperlink r:id="rId159" ref="S41"/>
-    <hyperlink r:id="rId160" ref="T41"/>
-    <hyperlink r:id="rId161" ref="Q42"/>
-    <hyperlink r:id="rId162" ref="R42"/>
-    <hyperlink r:id="rId163" ref="S42"/>
-    <hyperlink r:id="rId164" ref="T42"/>
-    <hyperlink r:id="rId165" ref="Q43"/>
-    <hyperlink r:id="rId166" ref="R43"/>
-    <hyperlink r:id="rId167" ref="S43"/>
-    <hyperlink r:id="rId168" ref="T43"/>
-    <hyperlink r:id="rId169" ref="Q44"/>
-    <hyperlink r:id="rId170" ref="R44"/>
-    <hyperlink r:id="rId171" ref="S44"/>
-    <hyperlink r:id="rId172" ref="T44"/>
-    <hyperlink r:id="rId173" ref="Q45"/>
-    <hyperlink r:id="rId174" ref="R45"/>
-    <hyperlink r:id="rId175" ref="S45"/>
-    <hyperlink r:id="rId176" ref="T45"/>
-    <hyperlink r:id="rId177" ref="Q46"/>
-    <hyperlink r:id="rId178" ref="R46"/>
-    <hyperlink r:id="rId179" ref="S46"/>
-    <hyperlink r:id="rId180" ref="T46"/>
-    <hyperlink r:id="rId181" ref="Q47"/>
-    <hyperlink r:id="rId182" ref="R47"/>
-    <hyperlink r:id="rId183" ref="S47"/>
-    <hyperlink r:id="rId184" ref="T47"/>
-    <hyperlink r:id="rId185" ref="Q48"/>
-    <hyperlink r:id="rId186" ref="R48"/>
-    <hyperlink r:id="rId187" ref="S48"/>
-    <hyperlink r:id="rId188" ref="T48"/>
-    <hyperlink r:id="rId189" ref="Q49"/>
-    <hyperlink r:id="rId190" ref="R49"/>
-    <hyperlink r:id="rId191" ref="S49"/>
-    <hyperlink r:id="rId192" ref="T49"/>
-    <hyperlink r:id="rId193" ref="Q50"/>
-    <hyperlink r:id="rId194" ref="R50"/>
-    <hyperlink r:id="rId195" ref="S50"/>
-    <hyperlink r:id="rId196" ref="T50"/>
-    <hyperlink r:id="rId197" ref="Q51"/>
-    <hyperlink r:id="rId198" ref="R51"/>
-    <hyperlink r:id="rId199" ref="S51"/>
-    <hyperlink r:id="rId200" ref="T51"/>
+    <hyperlink r:id="rId1" ref="R2"/>
+    <hyperlink r:id="rId2" ref="S2"/>
+    <hyperlink r:id="rId3" ref="T2"/>
+    <hyperlink r:id="rId4" ref="U2"/>
+    <hyperlink r:id="rId5" ref="R3"/>
+    <hyperlink r:id="rId6" ref="S3"/>
+    <hyperlink r:id="rId7" ref="T3"/>
+    <hyperlink r:id="rId8" ref="U3"/>
+    <hyperlink r:id="rId9" ref="R4"/>
+    <hyperlink r:id="rId10" ref="S4"/>
+    <hyperlink r:id="rId11" ref="T4"/>
+    <hyperlink r:id="rId12" ref="U4"/>
+    <hyperlink r:id="rId13" ref="R5"/>
+    <hyperlink r:id="rId14" ref="S5"/>
+    <hyperlink r:id="rId15" ref="T5"/>
+    <hyperlink r:id="rId16" ref="U5"/>
+    <hyperlink r:id="rId17" ref="R6"/>
+    <hyperlink r:id="rId18" ref="S6"/>
+    <hyperlink r:id="rId19" ref="T6"/>
+    <hyperlink r:id="rId20" ref="U6"/>
+    <hyperlink r:id="rId21" ref="R7"/>
+    <hyperlink r:id="rId22" ref="S7"/>
+    <hyperlink r:id="rId23" ref="T7"/>
+    <hyperlink r:id="rId24" ref="U7"/>
+    <hyperlink r:id="rId25" ref="R8"/>
+    <hyperlink r:id="rId26" ref="S8"/>
+    <hyperlink r:id="rId27" ref="T8"/>
+    <hyperlink r:id="rId28" ref="U8"/>
+    <hyperlink r:id="rId29" ref="R9"/>
+    <hyperlink r:id="rId30" ref="S9"/>
+    <hyperlink r:id="rId31" ref="T9"/>
+    <hyperlink r:id="rId32" ref="U9"/>
+    <hyperlink r:id="rId33" ref="R10"/>
+    <hyperlink r:id="rId34" ref="S10"/>
+    <hyperlink r:id="rId35" ref="T10"/>
+    <hyperlink r:id="rId36" ref="U10"/>
+    <hyperlink r:id="rId37" ref="R11"/>
+    <hyperlink r:id="rId38" ref="S11"/>
+    <hyperlink r:id="rId39" ref="T11"/>
+    <hyperlink r:id="rId40" ref="U11"/>
+    <hyperlink r:id="rId41" ref="R12"/>
+    <hyperlink r:id="rId42" ref="S12"/>
+    <hyperlink r:id="rId43" ref="T12"/>
+    <hyperlink r:id="rId44" ref="U12"/>
+    <hyperlink r:id="rId45" ref="R13"/>
+    <hyperlink r:id="rId46" ref="S13"/>
+    <hyperlink r:id="rId47" ref="T13"/>
+    <hyperlink r:id="rId48" ref="U13"/>
+    <hyperlink r:id="rId49" ref="R14"/>
+    <hyperlink r:id="rId50" ref="S14"/>
+    <hyperlink r:id="rId51" ref="T14"/>
+    <hyperlink r:id="rId52" ref="U14"/>
+    <hyperlink r:id="rId53" ref="R15"/>
+    <hyperlink r:id="rId54" ref="S15"/>
+    <hyperlink r:id="rId55" ref="T15"/>
+    <hyperlink r:id="rId56" ref="U15"/>
+    <hyperlink r:id="rId57" ref="R16"/>
+    <hyperlink r:id="rId58" ref="S16"/>
+    <hyperlink r:id="rId59" ref="T16"/>
+    <hyperlink r:id="rId60" ref="U16"/>
+    <hyperlink r:id="rId61" ref="R17"/>
+    <hyperlink r:id="rId62" ref="S17"/>
+    <hyperlink r:id="rId63" ref="T17"/>
+    <hyperlink r:id="rId64" ref="U17"/>
+    <hyperlink r:id="rId65" ref="R18"/>
+    <hyperlink r:id="rId66" ref="S18"/>
+    <hyperlink r:id="rId67" ref="T18"/>
+    <hyperlink r:id="rId68" ref="U18"/>
+    <hyperlink r:id="rId69" ref="R19"/>
+    <hyperlink r:id="rId70" ref="S19"/>
+    <hyperlink r:id="rId71" ref="T19"/>
+    <hyperlink r:id="rId72" ref="U19"/>
+    <hyperlink r:id="rId73" ref="R20"/>
+    <hyperlink r:id="rId74" ref="S20"/>
+    <hyperlink r:id="rId75" ref="T20"/>
+    <hyperlink r:id="rId76" ref="U20"/>
+    <hyperlink r:id="rId77" ref="R21"/>
+    <hyperlink r:id="rId78" ref="S21"/>
+    <hyperlink r:id="rId79" ref="T21"/>
+    <hyperlink r:id="rId80" ref="U21"/>
+    <hyperlink r:id="rId81" ref="R22"/>
+    <hyperlink r:id="rId82" ref="S22"/>
+    <hyperlink r:id="rId83" ref="T22"/>
+    <hyperlink r:id="rId84" ref="U22"/>
+    <hyperlink r:id="rId85" ref="R23"/>
+    <hyperlink r:id="rId86" ref="S23"/>
+    <hyperlink r:id="rId87" ref="T23"/>
+    <hyperlink r:id="rId88" ref="U23"/>
+    <hyperlink r:id="rId89" ref="R24"/>
+    <hyperlink r:id="rId90" ref="S24"/>
+    <hyperlink r:id="rId91" ref="T24"/>
+    <hyperlink r:id="rId92" ref="U24"/>
+    <hyperlink r:id="rId93" ref="R25"/>
+    <hyperlink r:id="rId94" ref="S25"/>
+    <hyperlink r:id="rId95" ref="T25"/>
+    <hyperlink r:id="rId96" ref="U25"/>
+    <hyperlink r:id="rId97" ref="R26"/>
+    <hyperlink r:id="rId98" ref="S26"/>
+    <hyperlink r:id="rId99" ref="T26"/>
+    <hyperlink r:id="rId100" ref="U26"/>
+    <hyperlink r:id="rId101" ref="R27"/>
+    <hyperlink r:id="rId102" ref="S27"/>
+    <hyperlink r:id="rId103" ref="T27"/>
+    <hyperlink r:id="rId104" ref="U27"/>
+    <hyperlink r:id="rId105" ref="R28"/>
+    <hyperlink r:id="rId106" ref="S28"/>
+    <hyperlink r:id="rId107" ref="T28"/>
+    <hyperlink r:id="rId108" ref="U28"/>
+    <hyperlink r:id="rId109" ref="R29"/>
+    <hyperlink r:id="rId110" ref="S29"/>
+    <hyperlink r:id="rId111" ref="T29"/>
+    <hyperlink r:id="rId112" ref="U29"/>
+    <hyperlink r:id="rId113" ref="R30"/>
+    <hyperlink r:id="rId114" ref="S30"/>
+    <hyperlink r:id="rId115" ref="T30"/>
+    <hyperlink r:id="rId116" ref="U30"/>
+    <hyperlink r:id="rId117" ref="R31"/>
+    <hyperlink r:id="rId118" ref="S31"/>
+    <hyperlink r:id="rId119" ref="T31"/>
+    <hyperlink r:id="rId120" ref="U31"/>
+    <hyperlink r:id="rId121" ref="R32"/>
+    <hyperlink r:id="rId122" ref="S32"/>
+    <hyperlink r:id="rId123" ref="T32"/>
+    <hyperlink r:id="rId124" ref="U32"/>
+    <hyperlink r:id="rId125" ref="R33"/>
+    <hyperlink r:id="rId126" ref="S33"/>
+    <hyperlink r:id="rId127" ref="T33"/>
+    <hyperlink r:id="rId128" ref="U33"/>
+    <hyperlink r:id="rId129" ref="R34"/>
+    <hyperlink r:id="rId130" ref="S34"/>
+    <hyperlink r:id="rId131" ref="T34"/>
+    <hyperlink r:id="rId132" ref="U34"/>
+    <hyperlink r:id="rId133" ref="R35"/>
+    <hyperlink r:id="rId134" ref="S35"/>
+    <hyperlink r:id="rId135" ref="T35"/>
+    <hyperlink r:id="rId136" ref="U35"/>
+    <hyperlink r:id="rId137" ref="R36"/>
+    <hyperlink r:id="rId138" ref="S36"/>
+    <hyperlink r:id="rId139" ref="T36"/>
+    <hyperlink r:id="rId140" ref="U36"/>
+    <hyperlink r:id="rId141" ref="R37"/>
+    <hyperlink r:id="rId142" ref="S37"/>
+    <hyperlink r:id="rId143" ref="T37"/>
+    <hyperlink r:id="rId144" ref="U37"/>
+    <hyperlink r:id="rId145" ref="R38"/>
+    <hyperlink r:id="rId146" ref="S38"/>
+    <hyperlink r:id="rId147" ref="T38"/>
+    <hyperlink r:id="rId148" ref="U38"/>
+    <hyperlink r:id="rId149" ref="R39"/>
+    <hyperlink r:id="rId150" ref="S39"/>
+    <hyperlink r:id="rId151" ref="T39"/>
+    <hyperlink r:id="rId152" ref="U39"/>
+    <hyperlink r:id="rId153" ref="R40"/>
+    <hyperlink r:id="rId154" ref="S40"/>
+    <hyperlink r:id="rId155" ref="T40"/>
+    <hyperlink r:id="rId156" ref="U40"/>
+    <hyperlink r:id="rId157" ref="R41"/>
+    <hyperlink r:id="rId158" ref="S41"/>
+    <hyperlink r:id="rId159" ref="T41"/>
+    <hyperlink r:id="rId160" ref="U41"/>
+    <hyperlink r:id="rId161" ref="R42"/>
+    <hyperlink r:id="rId162" ref="S42"/>
+    <hyperlink r:id="rId163" ref="T42"/>
+    <hyperlink r:id="rId164" ref="U42"/>
+    <hyperlink r:id="rId165" ref="R43"/>
+    <hyperlink r:id="rId166" ref="S43"/>
+    <hyperlink r:id="rId167" ref="T43"/>
+    <hyperlink r:id="rId168" ref="U43"/>
+    <hyperlink r:id="rId169" ref="R44"/>
+    <hyperlink r:id="rId170" ref="S44"/>
+    <hyperlink r:id="rId171" ref="T44"/>
+    <hyperlink r:id="rId172" ref="U44"/>
+    <hyperlink r:id="rId173" ref="R45"/>
+    <hyperlink r:id="rId174" ref="S45"/>
+    <hyperlink r:id="rId175" ref="T45"/>
+    <hyperlink r:id="rId176" ref="U45"/>
+    <hyperlink r:id="rId177" ref="R46"/>
+    <hyperlink r:id="rId178" ref="S46"/>
+    <hyperlink r:id="rId179" ref="T46"/>
+    <hyperlink r:id="rId180" ref="U46"/>
+    <hyperlink r:id="rId181" ref="R47"/>
+    <hyperlink r:id="rId182" ref="S47"/>
+    <hyperlink r:id="rId183" ref="T47"/>
+    <hyperlink r:id="rId184" ref="U47"/>
+    <hyperlink r:id="rId185" ref="R48"/>
+    <hyperlink r:id="rId186" ref="S48"/>
+    <hyperlink r:id="rId187" ref="T48"/>
+    <hyperlink r:id="rId188" ref="U48"/>
+    <hyperlink r:id="rId189" ref="R49"/>
+    <hyperlink r:id="rId190" ref="S49"/>
+    <hyperlink r:id="rId191" ref="T49"/>
+    <hyperlink r:id="rId192" ref="U49"/>
+    <hyperlink r:id="rId193" ref="R50"/>
+    <hyperlink r:id="rId194" ref="S50"/>
+    <hyperlink r:id="rId195" ref="T50"/>
+    <hyperlink r:id="rId196" ref="U50"/>
+    <hyperlink r:id="rId197" ref="R51"/>
+    <hyperlink r:id="rId198" ref="S51"/>
+    <hyperlink r:id="rId199" ref="T51"/>
+    <hyperlink r:id="rId200" ref="U51"/>
   </hyperlinks>
   <drawing r:id="rId201"/>
 </worksheet>
